--- a/config_3.9/shoping_config_xiaomi.xlsx
+++ b/config_3.9/shoping_config_xiaomi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -9521,9 +9521,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9577,6 +9574,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12070,11 +12070,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN579"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W381" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomRight" activeCell="Z391" sqref="Z391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -15916,298 +15916,298 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="51">
+    <row r="67" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="50">
         <v>66</v>
       </c>
-      <c r="B67" s="51">
+      <c r="B67" s="50">
         <v>85</v>
       </c>
-      <c r="D67" s="51">
+      <c r="D67" s="50">
         <v>2</v>
       </c>
-      <c r="F67" s="51">
-        <v>1</v>
-      </c>
-      <c r="G67" s="51" t="s">
+      <c r="F67" s="50">
+        <v>1</v>
+      </c>
+      <c r="G67" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="H67" s="51" t="s">
+      <c r="H67" s="50" t="s">
         <v>1785</v>
       </c>
-      <c r="L67" s="51">
+      <c r="L67" s="50">
         <v>-4</v>
       </c>
-      <c r="M67" s="51">
-        <v>0</v>
-      </c>
-      <c r="N67" s="51">
-        <v>0</v>
-      </c>
-      <c r="O67" s="51" t="s">
+      <c r="M67" s="50">
+        <v>0</v>
+      </c>
+      <c r="N67" s="50">
+        <v>0</v>
+      </c>
+      <c r="O67" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P67" s="51">
+      <c r="P67" s="50">
         <v>1500</v>
       </c>
-      <c r="Q67" s="51" t="s">
+      <c r="Q67" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R67" s="51" t="s">
+      <c r="R67" s="50" t="s">
         <v>1361</v>
       </c>
-      <c r="W67" s="51" t="s">
+      <c r="W67" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X67" s="52" t="s">
+      <c r="X67" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y67" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="51">
+      <c r="Y67" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH67" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI67" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="51">
+      <c r="AH67" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI67" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="50">
         <v>67</v>
       </c>
-      <c r="B68" s="51">
+      <c r="B68" s="50">
         <v>86</v>
       </c>
-      <c r="D68" s="51">
+      <c r="D68" s="50">
         <v>3</v>
       </c>
-      <c r="F68" s="51">
-        <v>1</v>
-      </c>
-      <c r="G68" s="51" t="s">
+      <c r="F68" s="50">
+        <v>1</v>
+      </c>
+      <c r="G68" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="H68" s="51" t="s">
+      <c r="H68" s="50" t="s">
         <v>1786</v>
       </c>
-      <c r="L68" s="51">
+      <c r="L68" s="50">
         <v>-4</v>
       </c>
-      <c r="M68" s="51">
-        <v>0</v>
-      </c>
-      <c r="N68" s="51">
-        <v>0</v>
-      </c>
-      <c r="O68" s="51" t="s">
+      <c r="M68" s="50">
+        <v>0</v>
+      </c>
+      <c r="N68" s="50">
+        <v>0</v>
+      </c>
+      <c r="O68" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P68" s="51">
+      <c r="P68" s="50">
         <v>3000</v>
       </c>
-      <c r="Q68" s="51" t="s">
+      <c r="Q68" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R68" s="51" t="s">
+      <c r="R68" s="50" t="s">
         <v>1399</v>
       </c>
-      <c r="W68" s="51" t="s">
+      <c r="W68" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X68" s="52" t="s">
+      <c r="X68" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y68" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="51">
+      <c r="Y68" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH68" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI68" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="51">
+      <c r="AH68" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="50">
         <v>68</v>
       </c>
-      <c r="B69" s="51">
+      <c r="B69" s="50">
         <v>87</v>
       </c>
-      <c r="D69" s="51">
+      <c r="D69" s="50">
         <v>4</v>
       </c>
-      <c r="F69" s="51">
-        <v>1</v>
-      </c>
-      <c r="G69" s="51" t="s">
+      <c r="F69" s="50">
+        <v>1</v>
+      </c>
+      <c r="G69" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="H69" s="51" t="s">
+      <c r="H69" s="50" t="s">
         <v>1787</v>
       </c>
-      <c r="L69" s="51">
+      <c r="L69" s="50">
         <v>-4</v>
       </c>
-      <c r="M69" s="51">
-        <v>0</v>
-      </c>
-      <c r="N69" s="51">
-        <v>0</v>
-      </c>
-      <c r="O69" s="51" t="s">
+      <c r="M69" s="50">
+        <v>0</v>
+      </c>
+      <c r="N69" s="50">
+        <v>0</v>
+      </c>
+      <c r="O69" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P69" s="51">
+      <c r="P69" s="50">
         <v>5000</v>
       </c>
-      <c r="Q69" s="51" t="s">
+      <c r="Q69" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R69" s="51" t="s">
+      <c r="R69" s="50" t="s">
         <v>1362</v>
       </c>
-      <c r="W69" s="51" t="s">
+      <c r="W69" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X69" s="52" t="s">
+      <c r="X69" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y69" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="51">
+      <c r="Y69" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH69" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI69" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="51">
+      <c r="AH69" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="50">
         <v>69</v>
       </c>
-      <c r="B70" s="51">
+      <c r="B70" s="50">
         <v>88</v>
       </c>
-      <c r="D70" s="51">
+      <c r="D70" s="50">
         <v>5</v>
       </c>
-      <c r="F70" s="51">
-        <v>1</v>
-      </c>
-      <c r="G70" s="51" t="s">
+      <c r="F70" s="50">
+        <v>1</v>
+      </c>
+      <c r="G70" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="H70" s="51" t="s">
+      <c r="H70" s="50" t="s">
         <v>1788</v>
       </c>
-      <c r="L70" s="51">
+      <c r="L70" s="50">
         <v>-4</v>
       </c>
-      <c r="M70" s="51">
-        <v>0</v>
-      </c>
-      <c r="N70" s="51">
-        <v>0</v>
-      </c>
-      <c r="O70" s="51" t="s">
+      <c r="M70" s="50">
+        <v>0</v>
+      </c>
+      <c r="N70" s="50">
+        <v>0</v>
+      </c>
+      <c r="O70" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P70" s="51">
+      <c r="P70" s="50">
         <v>9800</v>
       </c>
-      <c r="Q70" s="51" t="s">
+      <c r="Q70" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R70" s="51" t="s">
+      <c r="R70" s="50" t="s">
         <v>1363</v>
       </c>
-      <c r="W70" s="51" t="s">
+      <c r="W70" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X70" s="52" t="s">
+      <c r="X70" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y70" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="51">
+      <c r="Y70" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH70" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="51">
+      <c r="AH70" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI70" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="50">
         <v>70</v>
       </c>
-      <c r="B71" s="51">
+      <c r="B71" s="50">
         <v>89</v>
       </c>
-      <c r="D71" s="51">
+      <c r="D71" s="50">
         <v>6</v>
       </c>
-      <c r="F71" s="51">
-        <v>1</v>
-      </c>
-      <c r="G71" s="51" t="s">
+      <c r="F71" s="50">
+        <v>1</v>
+      </c>
+      <c r="G71" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H71" s="51" t="s">
+      <c r="H71" s="50" t="s">
         <v>1789</v>
       </c>
-      <c r="L71" s="51">
+      <c r="L71" s="50">
         <v>-4</v>
       </c>
-      <c r="M71" s="51">
-        <v>0</v>
-      </c>
-      <c r="N71" s="51">
-        <v>0</v>
-      </c>
-      <c r="O71" s="51" t="s">
+      <c r="M71" s="50">
+        <v>0</v>
+      </c>
+      <c r="N71" s="50">
+        <v>0</v>
+      </c>
+      <c r="O71" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P71" s="51">
+      <c r="P71" s="50">
         <v>49800</v>
       </c>
-      <c r="Q71" s="51" t="s">
+      <c r="Q71" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R71" s="51" t="s">
+      <c r="R71" s="50" t="s">
         <v>1364</v>
       </c>
-      <c r="W71" s="51" t="s">
+      <c r="W71" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X71" s="52" t="s">
+      <c r="X71" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y71" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="51">
+      <c r="Y71" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH71" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI71" s="51">
+      <c r="AH71" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="50">
         <v>1</v>
       </c>
     </row>
@@ -17503,56 +17503,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="51">
+    <row r="94" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="50">
         <v>93</v>
       </c>
-      <c r="B94" s="51">
+      <c r="B94" s="50">
         <v>109</v>
       </c>
-      <c r="F94" s="51">
-        <v>1</v>
-      </c>
-      <c r="G94" s="51" t="s">
+      <c r="F94" s="50">
+        <v>1</v>
+      </c>
+      <c r="G94" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="L94" s="51">
+      <c r="L94" s="50">
         <v>-4</v>
       </c>
-      <c r="M94" s="51">
-        <v>0</v>
-      </c>
-      <c r="N94" s="51">
-        <v>0</v>
-      </c>
-      <c r="O94" s="51" t="s">
+      <c r="M94" s="50">
+        <v>0</v>
+      </c>
+      <c r="N94" s="50">
+        <v>0</v>
+      </c>
+      <c r="O94" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P94" s="51">
+      <c r="P94" s="50">
         <v>100000</v>
       </c>
-      <c r="Q94" s="51" t="s">
+      <c r="Q94" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R94" s="51" t="s">
+      <c r="R94" s="50" t="s">
         <v>687</v>
       </c>
-      <c r="W94" s="51" t="s">
+      <c r="W94" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X94" s="52" t="s">
+      <c r="X94" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y94" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="51">
+      <c r="Y94" s="50">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH94" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI94" s="51">
+      <c r="AH94" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI94" s="50">
         <v>1</v>
       </c>
     </row>
@@ -19534,121 +19534,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:35" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="51">
+    <row r="128" spans="1:35" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="50">
         <v>127</v>
       </c>
-      <c r="B128" s="51">
+      <c r="B128" s="50">
         <v>10044</v>
       </c>
-      <c r="D128" s="51">
+      <c r="D128" s="50">
         <v>108</v>
       </c>
-      <c r="F128" s="51">
-        <v>1</v>
-      </c>
-      <c r="G128" s="51" t="s">
+      <c r="F128" s="50">
+        <v>1</v>
+      </c>
+      <c r="G128" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="H128" s="51" t="s">
+      <c r="H128" s="50" t="s">
         <v>1790</v>
       </c>
-      <c r="L128" s="51">
+      <c r="L128" s="50">
         <v>-10</v>
       </c>
-      <c r="M128" s="51">
-        <v>0</v>
-      </c>
-      <c r="N128" s="51">
-        <v>0</v>
-      </c>
-      <c r="O128" s="51" t="s">
+      <c r="M128" s="50">
+        <v>0</v>
+      </c>
+      <c r="N128" s="50">
+        <v>0</v>
+      </c>
+      <c r="O128" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P128" s="51">
+      <c r="P128" s="50">
         <v>99800</v>
       </c>
-      <c r="Q128" s="51" t="s">
+      <c r="Q128" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R128" s="51" t="s">
+      <c r="R128" s="50" t="s">
         <v>1366</v>
       </c>
-      <c r="W128" s="51" t="s">
+      <c r="W128" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X128" s="52" t="s">
+      <c r="X128" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y128" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z128" s="51">
+      <c r="Y128" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH128" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI128" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="51">
+      <c r="AH128" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:39" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="50">
         <v>128</v>
       </c>
-      <c r="B129" s="51">
+      <c r="B129" s="50">
         <v>10045</v>
       </c>
-      <c r="D129" s="51">
+      <c r="D129" s="50">
         <v>110</v>
       </c>
-      <c r="F129" s="51">
-        <v>1</v>
-      </c>
-      <c r="G129" s="51" t="s">
+      <c r="F129" s="50">
+        <v>1</v>
+      </c>
+      <c r="G129" s="50" t="s">
         <v>1125</v>
       </c>
-      <c r="H129" s="51" t="s">
+      <c r="H129" s="50" t="s">
         <v>1791</v>
       </c>
-      <c r="L129" s="51">
+      <c r="L129" s="50">
         <v>-11</v>
       </c>
-      <c r="M129" s="51">
-        <v>0</v>
-      </c>
-      <c r="N129" s="51">
-        <v>0</v>
-      </c>
-      <c r="O129" s="51" t="s">
+      <c r="M129" s="50">
+        <v>0</v>
+      </c>
+      <c r="N129" s="50">
+        <v>0</v>
+      </c>
+      <c r="O129" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P129" s="51">
+      <c r="P129" s="50">
         <v>249800</v>
       </c>
-      <c r="Q129" s="51" t="s">
+      <c r="Q129" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R129" s="51" t="s">
+      <c r="R129" s="50" t="s">
         <v>1365</v>
       </c>
-      <c r="W129" s="51" t="s">
+      <c r="W129" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X129" s="52" t="s">
+      <c r="X129" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y129" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="51">
+      <c r="Y129" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH129" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI129" s="51">
+      <c r="AH129" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI129" s="50">
         <v>1</v>
       </c>
     </row>
@@ -22256,7 +22256,7 @@
       <c r="Q171" s="43" t="s">
         <v>1720</v>
       </c>
-      <c r="R171" s="50" t="s">
+      <c r="R171" s="49" t="s">
         <v>1721</v>
       </c>
       <c r="W171" s="43" t="s">
@@ -22324,7 +22324,7 @@
       <c r="Q172" s="43" t="s">
         <v>1720</v>
       </c>
-      <c r="R172" s="50" t="s">
+      <c r="R172" s="49" t="s">
         <v>1724</v>
       </c>
       <c r="W172" s="43" t="s">
@@ -22392,7 +22392,7 @@
       <c r="Q173" s="43" t="s">
         <v>1720</v>
       </c>
-      <c r="R173" s="50" t="s">
+      <c r="R173" s="49" t="s">
         <v>1727</v>
       </c>
       <c r="W173" s="43" t="s">
@@ -22460,7 +22460,7 @@
       <c r="Q174" s="43" t="s">
         <v>1720</v>
       </c>
-      <c r="R174" s="50" t="s">
+      <c r="R174" s="49" t="s">
         <v>1730</v>
       </c>
       <c r="W174" s="43" t="s">
@@ -22528,7 +22528,7 @@
       <c r="Q175" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R175" s="50" t="s">
+      <c r="R175" s="49" t="s">
         <v>1734</v>
       </c>
       <c r="W175" s="43" t="s">
@@ -22596,7 +22596,7 @@
       <c r="Q176" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R176" s="50" t="s">
+      <c r="R176" s="49" t="s">
         <v>1737</v>
       </c>
       <c r="W176" s="43" t="s">
@@ -22664,7 +22664,7 @@
       <c r="Q177" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R177" s="50" t="s">
+      <c r="R177" s="49" t="s">
         <v>1740</v>
       </c>
       <c r="W177" s="43" t="s">
@@ -22732,7 +22732,7 @@
       <c r="Q178" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R178" s="50" t="s">
+      <c r="R178" s="49" t="s">
         <v>1743</v>
       </c>
       <c r="W178" s="43" t="s">
@@ -22800,7 +22800,7 @@
       <c r="Q179" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R179" s="50" t="s">
+      <c r="R179" s="49" t="s">
         <v>1746</v>
       </c>
       <c r="W179" s="43" t="s">
@@ -22868,7 +22868,7 @@
       <c r="Q180" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R180" s="50" t="s">
+      <c r="R180" s="49" t="s">
         <v>1743</v>
       </c>
       <c r="W180" s="43" t="s">
@@ -22936,7 +22936,7 @@
       <c r="Q181" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R181" s="50" t="s">
+      <c r="R181" s="49" t="s">
         <v>1746</v>
       </c>
       <c r="W181" s="43" t="s">
@@ -23004,7 +23004,7 @@
       <c r="Q182" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R182" s="50" t="s">
+      <c r="R182" s="49" t="s">
         <v>1751</v>
       </c>
       <c r="W182" s="43" t="s">
@@ -23072,7 +23072,7 @@
       <c r="Q183" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R183" s="50" t="s">
+      <c r="R183" s="49" t="s">
         <v>1746</v>
       </c>
       <c r="W183" s="43" t="s">
@@ -23140,7 +23140,7 @@
       <c r="Q184" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R184" s="50" t="s">
+      <c r="R184" s="49" t="s">
         <v>1751</v>
       </c>
       <c r="W184" s="43" t="s">
@@ -23208,7 +23208,7 @@
       <c r="Q185" s="43" t="s">
         <v>1733</v>
       </c>
-      <c r="R185" s="50" t="s">
+      <c r="R185" s="49" t="s">
         <v>1756</v>
       </c>
       <c r="W185" s="43" t="s">
@@ -28896,62 +28896,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="51" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="51">
+    <row r="273" spans="1:40" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="50">
         <v>272</v>
       </c>
-      <c r="B273" s="51">
+      <c r="B273" s="50">
         <v>10189</v>
       </c>
-      <c r="D273" s="54">
+      <c r="D273" s="53">
         <v>111</v>
       </c>
-      <c r="F273" s="51">
-        <v>1</v>
-      </c>
-      <c r="G273" s="51" t="s">
+      <c r="F273" s="50">
+        <v>1</v>
+      </c>
+      <c r="G273" s="50" t="s">
         <v>520</v>
       </c>
-      <c r="H273" s="55" t="s">
+      <c r="H273" s="54" t="s">
         <v>1864</v>
       </c>
-      <c r="L273" s="51">
+      <c r="L273" s="50">
         <v>-10</v>
       </c>
-      <c r="M273" s="51">
-        <v>0</v>
-      </c>
-      <c r="N273" s="51">
-        <v>0</v>
-      </c>
-      <c r="O273" s="51" t="s">
+      <c r="M273" s="50">
+        <v>0</v>
+      </c>
+      <c r="N273" s="50">
+        <v>0</v>
+      </c>
+      <c r="O273" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P273" s="51">
+      <c r="P273" s="50">
         <v>19800</v>
       </c>
-      <c r="Q273" s="51" t="s">
+      <c r="Q273" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R273" s="51" t="s">
+      <c r="R273" s="50" t="s">
         <v>1367</v>
       </c>
-      <c r="W273" s="51" t="s">
+      <c r="W273" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X273" s="52" t="s">
+      <c r="X273" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y273" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z273" s="51">
+      <c r="Y273" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH273" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI273" s="51">
+      <c r="AH273" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI273" s="50">
         <v>1</v>
       </c>
     </row>
@@ -32060,7 +32060,7 @@
       <c r="Q323" s="43" t="s">
         <v>1759</v>
       </c>
-      <c r="R323" s="50" t="s">
+      <c r="R323" s="49" t="s">
         <v>1760</v>
       </c>
       <c r="W323" s="43" t="s">
@@ -32125,7 +32125,7 @@
       <c r="Q324" s="43" t="s">
         <v>1764</v>
       </c>
-      <c r="R324" s="50" t="s">
+      <c r="R324" s="49" t="s">
         <v>1765</v>
       </c>
       <c r="W324" s="43" t="s">
@@ -32190,7 +32190,7 @@
       <c r="Q325" s="43" t="s">
         <v>1759</v>
       </c>
-      <c r="R325" s="50" t="s">
+      <c r="R325" s="49" t="s">
         <v>1768</v>
       </c>
       <c r="W325" s="43" t="s">
@@ -32382,7 +32382,7 @@
       <c r="Q328" s="43" t="s">
         <v>1641</v>
       </c>
-      <c r="R328" s="50" t="s">
+      <c r="R328" s="49" t="s">
         <v>980</v>
       </c>
       <c r="S328" s="43"/>
@@ -32465,7 +32465,7 @@
       <c r="Q329" s="43" t="s">
         <v>1644</v>
       </c>
-      <c r="R329" s="50" t="s">
+      <c r="R329" s="49" t="s">
         <v>1645</v>
       </c>
       <c r="S329" s="43"/>
@@ -32548,7 +32548,7 @@
       <c r="Q330" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R330" s="50" t="s">
+      <c r="R330" s="49" t="s">
         <v>1648</v>
       </c>
       <c r="S330" s="43"/>
@@ -32631,7 +32631,7 @@
       <c r="Q331" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R331" s="50" t="s">
+      <c r="R331" s="49" t="s">
         <v>1650</v>
       </c>
       <c r="S331" s="43"/>
@@ -32714,7 +32714,7 @@
       <c r="Q332" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R332" s="50" t="s">
+      <c r="R332" s="49" t="s">
         <v>1652</v>
       </c>
       <c r="S332" s="43"/>
@@ -32797,7 +32797,7 @@
       <c r="Q333" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R333" s="50" t="s">
+      <c r="R333" s="49" t="s">
         <v>1653</v>
       </c>
       <c r="S333" s="43"/>
@@ -32880,7 +32880,7 @@
       <c r="Q334" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R334" s="50" t="s">
+      <c r="R334" s="49" t="s">
         <v>1656</v>
       </c>
       <c r="S334" s="43"/>
@@ -32963,7 +32963,7 @@
       <c r="Q335" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R335" s="50" t="s">
+      <c r="R335" s="49" t="s">
         <v>1659</v>
       </c>
       <c r="S335" s="43"/>
@@ -33046,7 +33046,7 @@
       <c r="Q336" s="43" t="s">
         <v>1647</v>
       </c>
-      <c r="R336" s="50" t="s">
+      <c r="R336" s="49" t="s">
         <v>1661</v>
       </c>
       <c r="S336" s="43"/>
@@ -33129,7 +33129,7 @@
       <c r="Q337" s="43" t="s">
         <v>1635</v>
       </c>
-      <c r="R337" s="50" t="s">
+      <c r="R337" s="49" t="s">
         <v>1664</v>
       </c>
       <c r="S337" s="43"/>
@@ -35106,7 +35106,7 @@
         <v>10281</v>
       </c>
       <c r="F365" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G365" s="5" t="s">
         <v>1192</v>
@@ -35171,7 +35171,7 @@
         <v>10282</v>
       </c>
       <c r="F366" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G366" s="5" t="s">
         <v>1195</v>
@@ -35236,7 +35236,7 @@
         <v>10283</v>
       </c>
       <c r="F367" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G367" s="5" t="s">
         <v>1198</v>
@@ -35301,7 +35301,7 @@
         <v>10284</v>
       </c>
       <c r="F368" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G368" s="5" t="s">
         <v>1200</v>
@@ -35366,7 +35366,7 @@
         <v>10285</v>
       </c>
       <c r="F369" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G369" s="5" t="s">
         <v>1202</v>
@@ -35431,7 +35431,7 @@
         <v>10286</v>
       </c>
       <c r="F370" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G370" s="5" t="s">
         <v>1117</v>
@@ -35493,7 +35493,7 @@
         <v>10287</v>
       </c>
       <c r="F371" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G371" s="5" t="s">
         <v>1205</v>
@@ -35555,7 +35555,7 @@
         <v>10288</v>
       </c>
       <c r="F372" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G372" s="5" t="s">
         <v>1119</v>
@@ -35617,7 +35617,7 @@
         <v>10289</v>
       </c>
       <c r="F373" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G373" s="5" t="s">
         <v>1120</v>
@@ -35679,7 +35679,7 @@
         <v>10290</v>
       </c>
       <c r="F374" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G374" s="5" t="s">
         <v>1121</v>
@@ -35747,7 +35747,7 @@
         <v>10291</v>
       </c>
       <c r="F375" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G375" s="5" t="s">
         <v>1226</v>
@@ -35815,7 +35815,7 @@
         <v>10292</v>
       </c>
       <c r="F376" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G376" s="5" t="s">
         <v>1234</v>
@@ -35883,7 +35883,7 @@
         <v>10293</v>
       </c>
       <c r="F377" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G377" s="5" t="s">
         <v>1234</v>
@@ -35951,7 +35951,7 @@
         <v>10294</v>
       </c>
       <c r="F378" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G378" s="5" t="s">
         <v>1234</v>
@@ -36019,7 +36019,7 @@
         <v>10295</v>
       </c>
       <c r="F379" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G379" s="5" t="s">
         <v>1233</v>
@@ -36087,7 +36087,7 @@
         <v>10296</v>
       </c>
       <c r="F380" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G380" s="5" t="s">
         <v>1233</v>
@@ -36155,7 +36155,7 @@
         <v>10297</v>
       </c>
       <c r="F381" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G381" s="5" t="s">
         <v>1234</v>
@@ -36223,7 +36223,7 @@
         <v>10298</v>
       </c>
       <c r="F382" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G382" s="5" t="s">
         <v>1233</v>
@@ -36291,7 +36291,7 @@
         <v>10299</v>
       </c>
       <c r="F383" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G383" s="5" t="s">
         <v>1234</v>
@@ -36359,7 +36359,7 @@
         <v>10300</v>
       </c>
       <c r="F384" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G384" s="5" t="s">
         <v>1233</v>
@@ -36427,7 +36427,7 @@
         <v>10301</v>
       </c>
       <c r="F385" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G385" s="5" t="s">
         <v>1234</v>
@@ -36487,624 +36487,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="19">
+    <row r="386" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="22">
         <v>385</v>
       </c>
-      <c r="B386" s="19">
+      <c r="B386" s="22">
         <v>10302</v>
       </c>
-      <c r="F386" s="19">
-        <v>1</v>
-      </c>
-      <c r="G386" s="19" t="s">
+      <c r="F386" s="22">
+        <v>1</v>
+      </c>
+      <c r="G386" s="22" t="s">
         <v>1259</v>
       </c>
-      <c r="H386" s="47"/>
-      <c r="I386" s="19" t="s">
+      <c r="I386" s="22" t="s">
         <v>1260</v>
       </c>
-      <c r="J386" s="19" t="s">
+      <c r="J386" s="22" t="s">
         <v>1261</v>
       </c>
-      <c r="L386" s="19">
+      <c r="L386" s="22">
         <v>-31</v>
       </c>
-      <c r="M386" s="19">
-        <v>0</v>
-      </c>
-      <c r="N386" s="19">
-        <v>0</v>
-      </c>
-      <c r="O386" s="19" t="s">
+      <c r="M386" s="22">
+        <v>0</v>
+      </c>
+      <c r="N386" s="22">
+        <v>0</v>
+      </c>
+      <c r="O386" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P386" s="19">
+      <c r="P386" s="22">
         <v>1800</v>
       </c>
-      <c r="Q386" s="19" t="s">
+      <c r="Q386" s="22" t="s">
         <v>1262</v>
       </c>
-      <c r="R386" s="39" t="s">
+      <c r="R386" s="67" t="s">
         <v>1263</v>
       </c>
-      <c r="W386" s="19" t="s">
+      <c r="W386" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X386" s="19">
+      <c r="X386" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y386" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z386" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA386" s="19">
+      <c r="Y386" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z386" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA386" s="22">
         <v>44</v>
       </c>
-      <c r="AH386" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI386" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL386" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM386" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="19">
+      <c r="AH386" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI386" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM386" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="22">
         <v>386</v>
       </c>
-      <c r="B387" s="19">
+      <c r="B387" s="22">
         <v>10303</v>
       </c>
-      <c r="F387" s="19">
-        <v>1</v>
-      </c>
-      <c r="G387" s="19" t="s">
+      <c r="F387" s="22">
+        <v>1</v>
+      </c>
+      <c r="G387" s="22" t="s">
         <v>1264</v>
       </c>
-      <c r="H387" s="47"/>
-      <c r="I387" s="19" t="s">
+      <c r="I387" s="22" t="s">
         <v>1265</v>
       </c>
-      <c r="J387" s="19" t="s">
+      <c r="J387" s="22" t="s">
         <v>1266</v>
       </c>
-      <c r="L387" s="19">
+      <c r="L387" s="22">
         <v>-31</v>
       </c>
-      <c r="M387" s="19">
-        <v>0</v>
-      </c>
-      <c r="N387" s="19">
-        <v>0</v>
-      </c>
-      <c r="O387" s="19" t="s">
+      <c r="M387" s="22">
+        <v>0</v>
+      </c>
+      <c r="N387" s="22">
+        <v>0</v>
+      </c>
+      <c r="O387" s="22" t="s">
         <v>1267</v>
       </c>
-      <c r="P387" s="19">
+      <c r="P387" s="22">
         <v>3000</v>
       </c>
-      <c r="Q387" s="19" t="s">
+      <c r="Q387" s="22" t="s">
         <v>1268</v>
       </c>
-      <c r="R387" s="39" t="s">
+      <c r="R387" s="67" t="s">
         <v>1269</v>
       </c>
-      <c r="W387" s="19" t="s">
+      <c r="W387" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X387" s="19">
+      <c r="X387" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y387" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z387" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA387" s="19">
+      <c r="Y387" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z387" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA387" s="22">
         <v>44</v>
       </c>
-      <c r="AH387" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI387" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL387" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM387" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="19">
+      <c r="AH387" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI387" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM387" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="22">
         <v>387</v>
       </c>
-      <c r="B388" s="19">
+      <c r="B388" s="22">
         <v>10304</v>
       </c>
-      <c r="F388" s="19">
-        <v>1</v>
-      </c>
-      <c r="G388" s="19" t="s">
+      <c r="F388" s="22">
+        <v>1</v>
+      </c>
+      <c r="G388" s="22" t="s">
         <v>1270</v>
       </c>
-      <c r="H388" s="47"/>
-      <c r="I388" s="19" t="s">
+      <c r="I388" s="22" t="s">
         <v>1271</v>
       </c>
-      <c r="J388" s="19" t="s">
+      <c r="J388" s="22" t="s">
         <v>1272</v>
       </c>
-      <c r="L388" s="19">
+      <c r="L388" s="22">
         <v>-31</v>
       </c>
-      <c r="M388" s="19">
-        <v>0</v>
-      </c>
-      <c r="N388" s="19">
-        <v>0</v>
-      </c>
-      <c r="O388" s="19" t="s">
+      <c r="M388" s="22">
+        <v>0</v>
+      </c>
+      <c r="N388" s="22">
+        <v>0</v>
+      </c>
+      <c r="O388" s="22" t="s">
         <v>1273</v>
       </c>
-      <c r="P388" s="19">
+      <c r="P388" s="22">
         <v>4800</v>
       </c>
-      <c r="Q388" s="19" t="s">
+      <c r="Q388" s="22" t="s">
         <v>1274</v>
       </c>
-      <c r="R388" s="39" t="s">
+      <c r="R388" s="67" t="s">
         <v>1275</v>
       </c>
-      <c r="W388" s="19" t="s">
+      <c r="W388" s="22" t="s">
         <v>1276</v>
       </c>
-      <c r="X388" s="19">
+      <c r="X388" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y388" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z388" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA388" s="19">
+      <c r="Y388" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z388" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA388" s="22">
         <v>44</v>
       </c>
-      <c r="AH388" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI388" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL388" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM388" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="19">
+      <c r="AH388" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI388" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM388" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="22">
         <v>388</v>
       </c>
-      <c r="B389" s="19">
+      <c r="B389" s="22">
         <v>10305</v>
       </c>
-      <c r="F389" s="19">
-        <v>1</v>
-      </c>
-      <c r="G389" s="19" t="s">
+      <c r="F389" s="22">
+        <v>1</v>
+      </c>
+      <c r="G389" s="22" t="s">
         <v>1277</v>
       </c>
-      <c r="H389" s="49"/>
-      <c r="I389" s="19" t="s">
+      <c r="I389" s="22" t="s">
         <v>1278</v>
       </c>
-      <c r="J389" s="19" t="s">
+      <c r="J389" s="22" t="s">
         <v>1279</v>
       </c>
-      <c r="L389" s="19">
+      <c r="L389" s="22">
         <v>-31</v>
       </c>
-      <c r="M389" s="19">
-        <v>0</v>
-      </c>
-      <c r="N389" s="19">
-        <v>0</v>
-      </c>
-      <c r="O389" s="19" t="s">
+      <c r="M389" s="22">
+        <v>0</v>
+      </c>
+      <c r="N389" s="22">
+        <v>0</v>
+      </c>
+      <c r="O389" s="22" t="s">
         <v>1280</v>
       </c>
-      <c r="P389" s="19">
+      <c r="P389" s="22">
         <v>4800</v>
       </c>
-      <c r="Q389" s="19" t="s">
+      <c r="Q389" s="22" t="s">
         <v>1281</v>
       </c>
-      <c r="R389" s="39" t="s">
+      <c r="R389" s="67" t="s">
         <v>1275</v>
       </c>
-      <c r="W389" s="19" t="s">
+      <c r="W389" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X389" s="19">
+      <c r="X389" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z389" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA389" s="19">
+      <c r="Y389" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z389" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA389" s="22">
         <v>45</v>
       </c>
-      <c r="AH389" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI389" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL389" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM389" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="19">
+      <c r="AH389" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI389" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM389" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="22">
         <v>389</v>
       </c>
-      <c r="B390" s="19">
+      <c r="B390" s="22">
         <v>10306</v>
       </c>
-      <c r="F390" s="19">
-        <v>1</v>
-      </c>
-      <c r="G390" s="19" t="s">
+      <c r="F390" s="22">
+        <v>1</v>
+      </c>
+      <c r="G390" s="22" t="s">
         <v>1264</v>
       </c>
-      <c r="H390" s="49"/>
-      <c r="I390" s="19" t="s">
+      <c r="I390" s="22" t="s">
         <v>1109</v>
       </c>
-      <c r="J390" s="19" t="s">
+      <c r="J390" s="22" t="s">
         <v>1282</v>
       </c>
-      <c r="L390" s="19">
+      <c r="L390" s="22">
         <v>-31</v>
       </c>
-      <c r="M390" s="19">
-        <v>0</v>
-      </c>
-      <c r="N390" s="19">
-        <v>0</v>
-      </c>
-      <c r="O390" s="19" t="s">
+      <c r="M390" s="22">
+        <v>0</v>
+      </c>
+      <c r="N390" s="22">
+        <v>0</v>
+      </c>
+      <c r="O390" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P390" s="19">
+      <c r="P390" s="22">
         <v>9800</v>
       </c>
-      <c r="Q390" s="19" t="s">
+      <c r="Q390" s="22" t="s">
         <v>1283</v>
       </c>
-      <c r="R390" s="39" t="s">
+      <c r="R390" s="67" t="s">
         <v>1284</v>
       </c>
-      <c r="W390" s="19" t="s">
+      <c r="W390" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X390" s="19">
+      <c r="X390" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z390" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA390" s="19">
+      <c r="Y390" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z390" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA390" s="22">
         <v>45</v>
       </c>
-      <c r="AH390" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI390" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL390" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM390" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="19">
+      <c r="AH390" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI390" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM390" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="22">
         <v>390</v>
       </c>
-      <c r="B391" s="19">
+      <c r="B391" s="22">
         <v>10307</v>
       </c>
-      <c r="F391" s="19">
-        <v>1</v>
-      </c>
-      <c r="G391" s="19" t="s">
+      <c r="F391" s="22">
+        <v>1</v>
+      </c>
+      <c r="G391" s="22" t="s">
         <v>1285</v>
       </c>
-      <c r="H391" s="49"/>
-      <c r="I391" s="19" t="s">
+      <c r="I391" s="22" t="s">
         <v>1278</v>
       </c>
-      <c r="J391" s="19" t="s">
+      <c r="J391" s="22" t="s">
         <v>1286</v>
       </c>
-      <c r="L391" s="19">
+      <c r="L391" s="22">
         <v>-31</v>
       </c>
-      <c r="M391" s="19">
-        <v>0</v>
-      </c>
-      <c r="N391" s="19">
-        <v>0</v>
-      </c>
-      <c r="O391" s="19" t="s">
+      <c r="M391" s="22">
+        <v>0</v>
+      </c>
+      <c r="N391" s="22">
+        <v>0</v>
+      </c>
+      <c r="O391" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P391" s="19">
+      <c r="P391" s="22">
         <v>19800</v>
       </c>
-      <c r="Q391" s="19" t="s">
+      <c r="Q391" s="22" t="s">
         <v>1287</v>
       </c>
-      <c r="R391" s="39" t="s">
+      <c r="R391" s="67" t="s">
         <v>1288</v>
       </c>
-      <c r="W391" s="19" t="s">
+      <c r="W391" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X391" s="19">
+      <c r="X391" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z391" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA391" s="19">
+      <c r="Y391" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z391" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA391" s="22">
         <v>45</v>
       </c>
-      <c r="AH391" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI391" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL391" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM391" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="19">
+      <c r="AH391" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI391" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM391" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="22">
         <v>391</v>
       </c>
-      <c r="B392" s="19">
+      <c r="B392" s="22">
         <v>10308</v>
       </c>
-      <c r="F392" s="19">
-        <v>1</v>
-      </c>
-      <c r="G392" s="19" t="s">
+      <c r="F392" s="22">
+        <v>1</v>
+      </c>
+      <c r="G392" s="22" t="s">
         <v>1259</v>
       </c>
-      <c r="H392" s="47"/>
-      <c r="I392" s="19" t="s">
+      <c r="I392" s="22" t="s">
         <v>1289</v>
       </c>
-      <c r="J392" s="19" t="s">
+      <c r="J392" s="22" t="s">
         <v>1290</v>
       </c>
-      <c r="L392" s="19">
+      <c r="L392" s="22">
         <v>-31</v>
       </c>
-      <c r="M392" s="19">
-        <v>0</v>
-      </c>
-      <c r="N392" s="19">
-        <v>0</v>
-      </c>
-      <c r="O392" s="19" t="s">
+      <c r="M392" s="22">
+        <v>0</v>
+      </c>
+      <c r="N392" s="22">
+        <v>0</v>
+      </c>
+      <c r="O392" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P392" s="19">
+      <c r="P392" s="22">
         <v>9800</v>
       </c>
-      <c r="Q392" s="19" t="s">
+      <c r="Q392" s="22" t="s">
         <v>1291</v>
       </c>
-      <c r="R392" s="39" t="s">
+      <c r="R392" s="67" t="s">
         <v>1292</v>
       </c>
-      <c r="W392" s="19" t="s">
+      <c r="W392" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X392" s="19">
+      <c r="X392" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y392" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z392" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA392" s="19">
+      <c r="Y392" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z392" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA392" s="22">
         <v>46</v>
       </c>
-      <c r="AH392" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI392" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL392" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM392" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="19">
+      <c r="AH392" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI392" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM392" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="22">
         <v>392</v>
       </c>
-      <c r="B393" s="19">
+      <c r="B393" s="22">
         <v>10309</v>
       </c>
-      <c r="F393" s="19">
-        <v>1</v>
-      </c>
-      <c r="G393" s="19" t="s">
+      <c r="F393" s="22">
+        <v>1</v>
+      </c>
+      <c r="G393" s="22" t="s">
         <v>1264</v>
       </c>
-      <c r="H393" s="47"/>
-      <c r="I393" s="19" t="s">
+      <c r="I393" s="22" t="s">
         <v>1293</v>
       </c>
-      <c r="J393" s="19" t="s">
+      <c r="J393" s="22" t="s">
         <v>1294</v>
       </c>
-      <c r="L393" s="19">
+      <c r="L393" s="22">
         <v>-31</v>
       </c>
-      <c r="M393" s="19">
-        <v>0</v>
-      </c>
-      <c r="N393" s="19">
-        <v>0</v>
-      </c>
-      <c r="O393" s="19" t="s">
+      <c r="M393" s="22">
+        <v>0</v>
+      </c>
+      <c r="N393" s="22">
+        <v>0</v>
+      </c>
+      <c r="O393" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="P393" s="19">
+      <c r="P393" s="22">
         <v>19800</v>
       </c>
-      <c r="Q393" s="19" t="s">
+      <c r="Q393" s="22" t="s">
         <v>1295</v>
       </c>
-      <c r="R393" s="39" t="s">
+      <c r="R393" s="67" t="s">
         <v>1288</v>
       </c>
-      <c r="W393" s="19" t="s">
+      <c r="W393" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X393" s="19">
+      <c r="X393" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y393" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z393" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA393" s="19">
+      <c r="Y393" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z393" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA393" s="22">
         <v>46</v>
       </c>
-      <c r="AH393" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI393" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL393" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM393" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="19">
+      <c r="AH393" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI393" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM393" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="22">
         <v>393</v>
       </c>
-      <c r="B394" s="19">
+      <c r="B394" s="22">
         <v>10310</v>
       </c>
-      <c r="F394" s="19">
-        <v>1</v>
-      </c>
-      <c r="G394" s="19" t="s">
+      <c r="F394" s="22">
+        <v>1</v>
+      </c>
+      <c r="G394" s="22" t="s">
         <v>1270</v>
       </c>
-      <c r="H394" s="47"/>
-      <c r="I394" s="19" t="s">
+      <c r="I394" s="22" t="s">
         <v>1296</v>
       </c>
-      <c r="J394" s="19" t="s">
+      <c r="J394" s="22" t="s">
         <v>1297</v>
       </c>
-      <c r="L394" s="19">
+      <c r="L394" s="22">
         <v>-31</v>
       </c>
-      <c r="M394" s="19">
-        <v>0</v>
-      </c>
-      <c r="N394" s="19">
-        <v>0</v>
-      </c>
-      <c r="O394" s="19" t="s">
+      <c r="M394" s="22">
+        <v>0</v>
+      </c>
+      <c r="N394" s="22">
+        <v>0</v>
+      </c>
+      <c r="O394" s="22" t="s">
         <v>1298</v>
       </c>
-      <c r="P394" s="19">
+      <c r="P394" s="22">
         <v>49800</v>
       </c>
-      <c r="Q394" s="19" t="s">
+      <c r="Q394" s="22" t="s">
         <v>1299</v>
       </c>
-      <c r="R394" s="39" t="s">
+      <c r="R394" s="67" t="s">
         <v>1300</v>
       </c>
-      <c r="W394" s="19" t="s">
+      <c r="W394" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="X394" s="19">
+      <c r="X394" s="22">
         <v>9999999</v>
       </c>
-      <c r="Y394" s="47">
-        <v>1608595200</v>
-      </c>
-      <c r="Z394" s="47">
-        <v>1609171199</v>
-      </c>
-      <c r="AA394" s="19">
+      <c r="Y394" s="22">
+        <v>1615248000</v>
+      </c>
+      <c r="Z394" s="22">
+        <v>1615823999</v>
+      </c>
+      <c r="AA394" s="22">
         <v>46</v>
       </c>
-      <c r="AH394" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI394" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL394" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM394" s="19">
+      <c r="AH394" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI394" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM394" s="22">
         <v>1</v>
       </c>
     </row>
@@ -37116,7 +37107,7 @@
         <v>10311</v>
       </c>
       <c r="F395" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G395" s="5" t="s">
         <v>1309</v>
@@ -37178,7 +37169,7 @@
         <v>10312</v>
       </c>
       <c r="F396" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G396" s="5" t="s">
         <v>1315</v>
@@ -37240,7 +37231,7 @@
         <v>10313</v>
       </c>
       <c r="F397" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G397" s="5" t="s">
         <v>288</v>
@@ -37302,7 +37293,7 @@
         <v>10314</v>
       </c>
       <c r="F398" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G398" s="5" t="s">
         <v>291</v>
@@ -37364,7 +37355,7 @@
         <v>10315</v>
       </c>
       <c r="F399" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G399" s="5" t="s">
         <v>1322</v>
@@ -37426,7 +37417,7 @@
         <v>10316</v>
       </c>
       <c r="F400" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G400" s="5" t="s">
         <v>1325</v>
@@ -38325,62 +38316,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="51">
+    <row r="414" spans="1:39" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="50">
         <v>413</v>
       </c>
-      <c r="B414" s="51">
+      <c r="B414" s="50">
         <v>10330</v>
       </c>
-      <c r="D414" s="51">
-        <v>1</v>
-      </c>
-      <c r="F414" s="51">
-        <v>1</v>
-      </c>
-      <c r="G414" s="51" t="s">
+      <c r="D414" s="50">
+        <v>1</v>
+      </c>
+      <c r="F414" s="50">
+        <v>1</v>
+      </c>
+      <c r="G414" s="50" t="s">
         <v>1374</v>
       </c>
-      <c r="H414" s="51" t="s">
+      <c r="H414" s="50" t="s">
         <v>1792</v>
       </c>
-      <c r="L414" s="51">
+      <c r="L414" s="50">
         <v>-4</v>
       </c>
-      <c r="M414" s="51">
-        <v>0</v>
-      </c>
-      <c r="N414" s="51">
-        <v>0</v>
-      </c>
-      <c r="O414" s="51" t="s">
+      <c r="M414" s="50">
+        <v>0</v>
+      </c>
+      <c r="N414" s="50">
+        <v>0</v>
+      </c>
+      <c r="O414" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="P414" s="51">
+      <c r="P414" s="50">
         <v>600</v>
       </c>
-      <c r="Q414" s="51" t="s">
+      <c r="Q414" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="R414" s="56" t="s">
+      <c r="R414" s="55" t="s">
         <v>1375</v>
       </c>
-      <c r="W414" s="51" t="s">
+      <c r="W414" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="X414" s="52" t="s">
+      <c r="X414" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="Y414" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z414" s="51">
+      <c r="Y414" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="50">
         <v>2552233600</v>
       </c>
-      <c r="AH414" s="51">
-        <v>1</v>
-      </c>
-      <c r="AI414" s="51">
+      <c r="AH414" s="50">
+        <v>1</v>
+      </c>
+      <c r="AI414" s="50">
         <v>1</v>
       </c>
     </row>
@@ -38792,827 +38783,827 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="59">
+    <row r="421" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="58">
         <v>420</v>
       </c>
-      <c r="B421" s="59">
+      <c r="B421" s="58">
         <v>10337</v>
       </c>
-      <c r="F421" s="59">
-        <v>1</v>
-      </c>
-      <c r="G421" s="59" t="s">
+      <c r="F421" s="58">
+        <v>1</v>
+      </c>
+      <c r="G421" s="58" t="s">
         <v>1420</v>
       </c>
-      <c r="J421" s="59" t="s">
+      <c r="J421" s="58" t="s">
         <v>1421</v>
       </c>
-      <c r="L421" s="59">
+      <c r="L421" s="58">
         <v>-31</v>
       </c>
-      <c r="M421" s="59">
-        <v>0</v>
-      </c>
-      <c r="N421" s="59">
-        <v>0</v>
-      </c>
-      <c r="O421" s="59" t="s">
+      <c r="M421" s="58">
+        <v>0</v>
+      </c>
+      <c r="N421" s="58">
+        <v>0</v>
+      </c>
+      <c r="O421" s="58" t="s">
         <v>1422</v>
       </c>
-      <c r="P421" s="59">
+      <c r="P421" s="58">
         <v>1000</v>
       </c>
-      <c r="Q421" s="59" t="s">
+      <c r="Q421" s="58" t="s">
         <v>1423</v>
       </c>
-      <c r="R421" s="60" t="s">
+      <c r="R421" s="59" t="s">
         <v>1424</v>
       </c>
-      <c r="W421" s="59" t="s">
+      <c r="W421" s="58" t="s">
         <v>1425</v>
       </c>
-      <c r="X421" s="59">
+      <c r="X421" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y421" s="59">
+      <c r="Y421" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z421" s="59">
+      <c r="Z421" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB421" s="59" t="s">
+      <c r="AB421" s="58" t="s">
         <v>1426</v>
       </c>
-      <c r="AC421" s="59" t="s">
+      <c r="AC421" s="58" t="s">
         <v>1427</v>
       </c>
-      <c r="AH421" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI421" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL421" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM421" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="59">
+      <c r="AH421" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI421" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL421" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM421" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="58">
         <v>421</v>
       </c>
-      <c r="B422" s="59">
+      <c r="B422" s="58">
         <v>10338</v>
       </c>
-      <c r="F422" s="59">
-        <v>1</v>
-      </c>
-      <c r="G422" s="59" t="s">
+      <c r="F422" s="58">
+        <v>1</v>
+      </c>
+      <c r="G422" s="58" t="s">
         <v>1446</v>
       </c>
-      <c r="I422" s="59" t="s">
+      <c r="I422" s="58" t="s">
         <v>1447</v>
       </c>
-      <c r="J422" s="59" t="s">
+      <c r="J422" s="58" t="s">
         <v>1448</v>
       </c>
-      <c r="L422" s="59">
+      <c r="L422" s="58">
         <v>-31</v>
       </c>
-      <c r="M422" s="59">
-        <v>0</v>
-      </c>
-      <c r="N422" s="59">
-        <v>0</v>
-      </c>
-      <c r="O422" s="59" t="s">
+      <c r="M422" s="58">
+        <v>0</v>
+      </c>
+      <c r="N422" s="58">
+        <v>0</v>
+      </c>
+      <c r="O422" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P422" s="59">
+      <c r="P422" s="58">
         <v>2000</v>
       </c>
-      <c r="Q422" s="59" t="s">
+      <c r="Q422" s="58" t="s">
         <v>1449</v>
       </c>
-      <c r="R422" s="60" t="s">
+      <c r="R422" s="59" t="s">
         <v>1450</v>
       </c>
-      <c r="W422" s="59" t="s">
+      <c r="W422" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="X422" s="59">
+      <c r="X422" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y422" s="59">
+      <c r="Y422" s="58">
         <v>1603756800</v>
       </c>
-      <c r="Z422" s="59">
+      <c r="Z422" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA422" s="59">
+      <c r="AA422" s="58">
         <v>51</v>
       </c>
-      <c r="AH422" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI422" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM422" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="59">
+      <c r="AH422" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI422" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM422" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="58">
         <v>422</v>
       </c>
-      <c r="B423" s="59">
+      <c r="B423" s="58">
         <v>10339</v>
       </c>
-      <c r="F423" s="59">
-        <v>1</v>
-      </c>
-      <c r="G423" s="59" t="s">
+      <c r="F423" s="58">
+        <v>1</v>
+      </c>
+      <c r="G423" s="58" t="s">
         <v>1428</v>
       </c>
-      <c r="I423" s="59" t="s">
+      <c r="I423" s="58" t="s">
         <v>1447</v>
       </c>
-      <c r="J423" s="59" t="s">
+      <c r="J423" s="58" t="s">
         <v>1451</v>
       </c>
-      <c r="L423" s="59">
+      <c r="L423" s="58">
         <v>-31</v>
       </c>
-      <c r="M423" s="59">
-        <v>0</v>
-      </c>
-      <c r="N423" s="59">
-        <v>0</v>
-      </c>
-      <c r="O423" s="59" t="s">
+      <c r="M423" s="58">
+        <v>0</v>
+      </c>
+      <c r="N423" s="58">
+        <v>0</v>
+      </c>
+      <c r="O423" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P423" s="59">
+      <c r="P423" s="58">
         <v>5800</v>
       </c>
-      <c r="Q423" s="59" t="s">
+      <c r="Q423" s="58" t="s">
         <v>1452</v>
       </c>
-      <c r="R423" s="60" t="s">
+      <c r="R423" s="59" t="s">
         <v>1453</v>
       </c>
-      <c r="W423" s="59" t="s">
+      <c r="W423" s="58" t="s">
         <v>1454</v>
       </c>
-      <c r="X423" s="59">
+      <c r="X423" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y423" s="59">
+      <c r="Y423" s="58">
         <v>1603756800</v>
       </c>
-      <c r="Z423" s="59">
+      <c r="Z423" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA423" s="59">
+      <c r="AA423" s="58">
         <v>51</v>
       </c>
-      <c r="AH423" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI423" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM423" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="59">
+      <c r="AH423" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI423" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM423" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="58">
         <v>423</v>
       </c>
-      <c r="B424" s="59">
+      <c r="B424" s="58">
         <v>10340</v>
       </c>
-      <c r="F424" s="59">
-        <v>1</v>
-      </c>
-      <c r="G424" s="59" t="s">
+      <c r="F424" s="58">
+        <v>1</v>
+      </c>
+      <c r="G424" s="58" t="s">
         <v>1455</v>
       </c>
-      <c r="I424" s="59" t="s">
+      <c r="I424" s="58" t="s">
         <v>1456</v>
       </c>
-      <c r="J424" s="59" t="s">
+      <c r="J424" s="58" t="s">
         <v>1457</v>
       </c>
-      <c r="L424" s="59">
+      <c r="L424" s="58">
         <v>-31</v>
       </c>
-      <c r="M424" s="59">
-        <v>0</v>
-      </c>
-      <c r="N424" s="59">
-        <v>0</v>
-      </c>
-      <c r="O424" s="59" t="s">
+      <c r="M424" s="58">
+        <v>0</v>
+      </c>
+      <c r="N424" s="58">
+        <v>0</v>
+      </c>
+      <c r="O424" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P424" s="59">
+      <c r="P424" s="58">
         <v>12800</v>
       </c>
-      <c r="Q424" s="59" t="s">
+      <c r="Q424" s="58" t="s">
         <v>1458</v>
       </c>
-      <c r="R424" s="60" t="s">
+      <c r="R424" s="59" t="s">
         <v>1459</v>
       </c>
-      <c r="W424" s="59" t="s">
+      <c r="W424" s="58" t="s">
         <v>1454</v>
       </c>
-      <c r="X424" s="59">
+      <c r="X424" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y424" s="59">
+      <c r="Y424" s="58">
         <v>1603756800</v>
       </c>
-      <c r="Z424" s="59">
+      <c r="Z424" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA424" s="59">
+      <c r="AA424" s="58">
         <v>51</v>
       </c>
-      <c r="AH424" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI424" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM424" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="59">
+      <c r="AH424" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI424" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM424" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="58">
         <v>424</v>
       </c>
-      <c r="B425" s="59">
+      <c r="B425" s="58">
         <v>10341</v>
       </c>
-      <c r="F425" s="59">
-        <v>1</v>
-      </c>
-      <c r="G425" s="59" t="s">
+      <c r="F425" s="58">
+        <v>1</v>
+      </c>
+      <c r="G425" s="58" t="s">
         <v>1430</v>
       </c>
-      <c r="J425" s="59" t="s">
+      <c r="J425" s="58" t="s">
         <v>1431</v>
       </c>
-      <c r="L425" s="59">
+      <c r="L425" s="58">
         <v>-31</v>
       </c>
-      <c r="M425" s="59">
-        <v>0</v>
-      </c>
-      <c r="N425" s="59">
-        <v>0</v>
-      </c>
-      <c r="O425" s="59" t="s">
+      <c r="M425" s="58">
+        <v>0</v>
+      </c>
+      <c r="N425" s="58">
+        <v>0</v>
+      </c>
+      <c r="O425" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P425" s="59">
+      <c r="P425" s="58">
         <v>49800</v>
       </c>
-      <c r="Q425" s="59" t="s">
+      <c r="Q425" s="58" t="s">
         <v>1432</v>
       </c>
-      <c r="R425" s="60" t="s">
+      <c r="R425" s="59" t="s">
         <v>1433</v>
       </c>
-      <c r="W425" s="59" t="s">
+      <c r="W425" s="58" t="s">
         <v>1429</v>
       </c>
-      <c r="X425" s="59">
+      <c r="X425" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y425" s="59">
+      <c r="Y425" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z425" s="59">
+      <c r="Z425" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH425" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI425" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="59">
+      <c r="AH425" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI425" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="58">
         <v>425</v>
       </c>
-      <c r="B426" s="59">
+      <c r="B426" s="58">
         <v>10342</v>
       </c>
-      <c r="F426" s="59">
-        <v>1</v>
-      </c>
-      <c r="G426" s="59" t="s">
+      <c r="F426" s="58">
+        <v>1</v>
+      </c>
+      <c r="G426" s="58" t="s">
         <v>1434</v>
       </c>
-      <c r="J426" s="59" t="s">
+      <c r="J426" s="58" t="s">
         <v>1435</v>
       </c>
-      <c r="L426" s="59">
+      <c r="L426" s="58">
         <v>-31</v>
       </c>
-      <c r="M426" s="59">
-        <v>0</v>
-      </c>
-      <c r="N426" s="59">
-        <v>0</v>
-      </c>
-      <c r="O426" s="59" t="s">
+      <c r="M426" s="58">
+        <v>0</v>
+      </c>
+      <c r="N426" s="58">
+        <v>0</v>
+      </c>
+      <c r="O426" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P426" s="59">
+      <c r="P426" s="58">
         <v>19800</v>
       </c>
-      <c r="Q426" s="59" t="s">
+      <c r="Q426" s="58" t="s">
         <v>1436</v>
       </c>
-      <c r="R426" s="60" t="s">
+      <c r="R426" s="59" t="s">
         <v>1433</v>
       </c>
-      <c r="W426" s="59" t="s">
+      <c r="W426" s="58" t="s">
         <v>1429</v>
       </c>
-      <c r="X426" s="59">
+      <c r="X426" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y426" s="59">
+      <c r="Y426" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z426" s="59">
+      <c r="Z426" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH426" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI426" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="59">
+      <c r="AH426" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI426" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="58">
         <v>426</v>
       </c>
-      <c r="B427" s="59">
+      <c r="B427" s="58">
         <v>10343</v>
       </c>
-      <c r="F427" s="59">
-        <v>1</v>
-      </c>
-      <c r="G427" s="59" t="s">
+      <c r="F427" s="58">
+        <v>1</v>
+      </c>
+      <c r="G427" s="58" t="s">
         <v>1437</v>
       </c>
-      <c r="J427" s="59" t="s">
+      <c r="J427" s="58" t="s">
         <v>1438</v>
       </c>
-      <c r="L427" s="59">
+      <c r="L427" s="58">
         <v>-31</v>
       </c>
-      <c r="M427" s="59">
-        <v>0</v>
-      </c>
-      <c r="N427" s="59">
-        <v>0</v>
-      </c>
-      <c r="O427" s="59" t="s">
+      <c r="M427" s="58">
+        <v>0</v>
+      </c>
+      <c r="N427" s="58">
+        <v>0</v>
+      </c>
+      <c r="O427" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P427" s="59">
+      <c r="P427" s="58">
         <v>9800</v>
       </c>
-      <c r="Q427" s="59" t="s">
+      <c r="Q427" s="58" t="s">
         <v>1439</v>
       </c>
-      <c r="R427" s="60" t="s">
+      <c r="R427" s="59" t="s">
         <v>649</v>
       </c>
-      <c r="W427" s="59" t="s">
+      <c r="W427" s="58" t="s">
         <v>1429</v>
       </c>
-      <c r="X427" s="59">
+      <c r="X427" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y427" s="59">
+      <c r="Y427" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z427" s="59">
+      <c r="Z427" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH427" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI427" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="59">
+      <c r="AH427" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI427" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="58">
         <v>427</v>
       </c>
-      <c r="B428" s="59">
+      <c r="B428" s="58">
         <v>10344</v>
       </c>
-      <c r="F428" s="59">
-        <v>1</v>
-      </c>
-      <c r="G428" s="59" t="s">
+      <c r="F428" s="58">
+        <v>1</v>
+      </c>
+      <c r="G428" s="58" t="s">
         <v>1440</v>
       </c>
-      <c r="J428" s="59" t="s">
+      <c r="J428" s="58" t="s">
         <v>1441</v>
       </c>
-      <c r="L428" s="59">
+      <c r="L428" s="58">
         <v>-31</v>
       </c>
-      <c r="M428" s="59">
-        <v>0</v>
-      </c>
-      <c r="N428" s="59">
-        <v>0</v>
-      </c>
-      <c r="O428" s="59" t="s">
+      <c r="M428" s="58">
+        <v>0</v>
+      </c>
+      <c r="N428" s="58">
+        <v>0</v>
+      </c>
+      <c r="O428" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P428" s="59">
+      <c r="P428" s="58">
         <v>9800</v>
       </c>
-      <c r="Q428" s="59" t="s">
+      <c r="Q428" s="58" t="s">
         <v>1442</v>
       </c>
-      <c r="R428" s="60" t="s">
+      <c r="R428" s="59" t="s">
         <v>1433</v>
       </c>
-      <c r="W428" s="59" t="s">
+      <c r="W428" s="58" t="s">
         <v>1425</v>
       </c>
-      <c r="X428" s="59">
+      <c r="X428" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y428" s="59">
+      <c r="Y428" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z428" s="59">
+      <c r="Z428" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH428" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI428" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="59">
+      <c r="AH428" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI428" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="58">
         <v>428</v>
       </c>
-      <c r="B429" s="59">
+      <c r="B429" s="58">
         <v>10345</v>
       </c>
-      <c r="F429" s="59">
-        <v>1</v>
-      </c>
-      <c r="G429" s="59" t="s">
+      <c r="F429" s="58">
+        <v>1</v>
+      </c>
+      <c r="G429" s="58" t="s">
         <v>1443</v>
       </c>
-      <c r="J429" s="59" t="s">
+      <c r="J429" s="58" t="s">
         <v>1444</v>
       </c>
-      <c r="L429" s="59">
+      <c r="L429" s="58">
         <v>-31</v>
       </c>
-      <c r="M429" s="59">
-        <v>0</v>
-      </c>
-      <c r="N429" s="59">
-        <v>0</v>
-      </c>
-      <c r="O429" s="59" t="s">
+      <c r="M429" s="58">
+        <v>0</v>
+      </c>
+      <c r="N429" s="58">
+        <v>0</v>
+      </c>
+      <c r="O429" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P429" s="59">
+      <c r="P429" s="58">
         <v>4800</v>
       </c>
-      <c r="Q429" s="59" t="s">
+      <c r="Q429" s="58" t="s">
         <v>1445</v>
       </c>
-      <c r="R429" s="60" t="s">
+      <c r="R429" s="59" t="s">
         <v>649</v>
       </c>
-      <c r="W429" s="59" t="s">
+      <c r="W429" s="58" t="s">
         <v>1425</v>
       </c>
-      <c r="X429" s="59">
+      <c r="X429" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y429" s="59">
+      <c r="Y429" s="58">
         <v>1585609200</v>
       </c>
-      <c r="Z429" s="59">
+      <c r="Z429" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH429" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI429" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="59">
+      <c r="AH429" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI429" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="58">
         <v>429</v>
       </c>
-      <c r="B430" s="59">
+      <c r="B430" s="58">
         <v>10346</v>
       </c>
-      <c r="F430" s="59">
-        <v>1</v>
-      </c>
-      <c r="G430" s="59" t="s">
+      <c r="F430" s="58">
+        <v>1</v>
+      </c>
+      <c r="G430" s="58" t="s">
         <v>1769</v>
       </c>
-      <c r="I430" s="59" t="s">
+      <c r="I430" s="58" t="s">
         <v>1770</v>
       </c>
-      <c r="J430" s="59" t="s">
+      <c r="J430" s="58" t="s">
         <v>1771</v>
       </c>
-      <c r="L430" s="59">
+      <c r="L430" s="58">
         <v>-28</v>
       </c>
-      <c r="M430" s="59">
-        <v>0</v>
-      </c>
-      <c r="N430" s="59">
-        <v>0</v>
-      </c>
-      <c r="O430" s="59" t="s">
+      <c r="M430" s="58">
+        <v>0</v>
+      </c>
+      <c r="N430" s="58">
+        <v>0</v>
+      </c>
+      <c r="O430" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P430" s="59">
+      <c r="P430" s="58">
         <v>100</v>
       </c>
-      <c r="Q430" s="59" t="s">
+      <c r="Q430" s="58" t="s">
         <v>1398</v>
       </c>
-      <c r="R430" s="60" t="s">
+      <c r="R430" s="59" t="s">
         <v>1772</v>
       </c>
-      <c r="W430" s="59" t="s">
+      <c r="W430" s="58" t="s">
         <v>1773</v>
       </c>
-      <c r="X430" s="59">
+      <c r="X430" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y430" s="59">
+      <c r="Y430" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z430" s="59">
+      <c r="Z430" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA430" s="59">
+      <c r="AA430" s="58">
         <v>14</v>
       </c>
-      <c r="AH430" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI430" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL430" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM430" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="59">
+      <c r="AH430" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI430" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL430" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM430" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="58">
         <v>430</v>
       </c>
-      <c r="B431" s="59">
+      <c r="B431" s="58">
         <v>10347</v>
       </c>
-      <c r="F431" s="59">
-        <v>1</v>
-      </c>
-      <c r="G431" s="59" t="s">
+      <c r="F431" s="58">
+        <v>1</v>
+      </c>
+      <c r="G431" s="58" t="s">
         <v>1769</v>
       </c>
-      <c r="I431" s="59" t="s">
+      <c r="I431" s="58" t="s">
         <v>1774</v>
       </c>
-      <c r="J431" s="59" t="s">
+      <c r="J431" s="58" t="s">
         <v>1775</v>
       </c>
-      <c r="L431" s="59">
+      <c r="L431" s="58">
         <v>-28</v>
       </c>
-      <c r="M431" s="59">
-        <v>0</v>
-      </c>
-      <c r="N431" s="59">
-        <v>0</v>
-      </c>
-      <c r="O431" s="59" t="s">
+      <c r="M431" s="58">
+        <v>0</v>
+      </c>
+      <c r="N431" s="58">
+        <v>0</v>
+      </c>
+      <c r="O431" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P431" s="59">
+      <c r="P431" s="58">
         <v>300</v>
       </c>
-      <c r="Q431" s="59" t="s">
+      <c r="Q431" s="58" t="s">
         <v>1398</v>
       </c>
-      <c r="R431" s="60" t="s">
+      <c r="R431" s="59" t="s">
         <v>1776</v>
       </c>
-      <c r="W431" s="59" t="s">
+      <c r="W431" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X431" s="59">
+      <c r="X431" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y431" s="59">
+      <c r="Y431" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z431" s="59">
+      <c r="Z431" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA431" s="59">
+      <c r="AA431" s="58">
         <v>14</v>
       </c>
-      <c r="AH431" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI431" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL431" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM431" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="59">
+      <c r="AH431" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI431" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL431" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM431" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="58">
         <v>431</v>
       </c>
-      <c r="B432" s="59">
+      <c r="B432" s="58">
         <v>10348</v>
       </c>
-      <c r="F432" s="59">
-        <v>1</v>
-      </c>
-      <c r="G432" s="59" t="s">
+      <c r="F432" s="58">
+        <v>1</v>
+      </c>
+      <c r="G432" s="58" t="s">
         <v>1769</v>
       </c>
-      <c r="I432" s="59" t="s">
+      <c r="I432" s="58" t="s">
         <v>1777</v>
       </c>
-      <c r="J432" s="59" t="s">
+      <c r="J432" s="58" t="s">
         <v>1778</v>
       </c>
-      <c r="L432" s="59">
+      <c r="L432" s="58">
         <v>-28</v>
       </c>
-      <c r="M432" s="59">
-        <v>0</v>
-      </c>
-      <c r="N432" s="59">
-        <v>0</v>
-      </c>
-      <c r="O432" s="59" t="s">
+      <c r="M432" s="58">
+        <v>0</v>
+      </c>
+      <c r="N432" s="58">
+        <v>0</v>
+      </c>
+      <c r="O432" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P432" s="59">
+      <c r="P432" s="58">
         <v>600</v>
       </c>
-      <c r="Q432" s="59" t="s">
+      <c r="Q432" s="58" t="s">
         <v>1398</v>
       </c>
-      <c r="R432" s="60" t="s">
+      <c r="R432" s="59" t="s">
         <v>1779</v>
       </c>
-      <c r="W432" s="59" t="s">
+      <c r="W432" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X432" s="59">
+      <c r="X432" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y432" s="59">
+      <c r="Y432" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z432" s="59">
+      <c r="Z432" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA432" s="59">
+      <c r="AA432" s="58">
         <v>14</v>
       </c>
-      <c r="AH432" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI432" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL432" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM432" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="59">
+      <c r="AH432" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI432" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL432" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM432" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="58">
         <v>432</v>
       </c>
-      <c r="B433" s="59">
+      <c r="B433" s="58">
         <v>10349</v>
       </c>
-      <c r="F433" s="59">
-        <v>1</v>
-      </c>
-      <c r="G433" s="59" t="s">
+      <c r="F433" s="58">
+        <v>1</v>
+      </c>
+      <c r="G433" s="58" t="s">
         <v>1769</v>
       </c>
-      <c r="I433" s="59" t="s">
+      <c r="I433" s="58" t="s">
         <v>1780</v>
       </c>
-      <c r="J433" s="59" t="s">
+      <c r="J433" s="58" t="s">
         <v>1781</v>
       </c>
-      <c r="L433" s="59">
+      <c r="L433" s="58">
         <v>-28</v>
       </c>
-      <c r="M433" s="59">
-        <v>0</v>
-      </c>
-      <c r="N433" s="59">
-        <v>0</v>
-      </c>
-      <c r="O433" s="59" t="s">
+      <c r="M433" s="58">
+        <v>0</v>
+      </c>
+      <c r="N433" s="58">
+        <v>0</v>
+      </c>
+      <c r="O433" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P433" s="59">
+      <c r="P433" s="58">
         <v>600</v>
       </c>
-      <c r="Q433" s="59" t="s">
+      <c r="Q433" s="58" t="s">
         <v>1782</v>
       </c>
-      <c r="R433" s="60" t="s">
+      <c r="R433" s="59" t="s">
         <v>1783</v>
       </c>
-      <c r="W433" s="59" t="s">
+      <c r="W433" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X433" s="59">
+      <c r="X433" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y433" s="59">
+      <c r="Y433" s="58">
         <v>1581377400</v>
       </c>
-      <c r="Z433" s="59">
+      <c r="Z433" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA433" s="59">
+      <c r="AA433" s="58">
         <v>14</v>
       </c>
-      <c r="AH433" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI433" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL433" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM433" s="59">
+      <c r="AH433" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI433" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL433" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM433" s="58">
         <v>1</v>
       </c>
     </row>
@@ -40443,1930 +40434,1930 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="59">
+    <row r="447" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="58">
         <v>446</v>
       </c>
-      <c r="B447" s="59">
+      <c r="B447" s="58">
         <v>10363</v>
       </c>
-      <c r="F447" s="59">
-        <v>1</v>
-      </c>
-      <c r="G447" s="59" t="s">
+      <c r="F447" s="58">
+        <v>1</v>
+      </c>
+      <c r="G447" s="58" t="s">
         <v>1524</v>
       </c>
-      <c r="I447" s="59" t="s">
+      <c r="I447" s="58" t="s">
         <v>1525</v>
       </c>
-      <c r="J447" s="59" t="s">
+      <c r="J447" s="58" t="s">
         <v>1526</v>
       </c>
-      <c r="L447" s="59">
+      <c r="L447" s="58">
         <v>-31</v>
       </c>
-      <c r="M447" s="59">
-        <v>0</v>
-      </c>
-      <c r="N447" s="59">
-        <v>0</v>
-      </c>
-      <c r="O447" s="59" t="s">
+      <c r="M447" s="58">
+        <v>0</v>
+      </c>
+      <c r="N447" s="58">
+        <v>0</v>
+      </c>
+      <c r="O447" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P447" s="59">
+      <c r="P447" s="58">
         <v>800</v>
       </c>
-      <c r="Q447" s="59" t="s">
+      <c r="Q447" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R447" s="60" t="s">
+      <c r="R447" s="59" t="s">
         <v>1528</v>
       </c>
-      <c r="W447" s="59" t="s">
+      <c r="W447" s="58" t="s">
         <v>1529</v>
       </c>
-      <c r="X447" s="59">
+      <c r="X447" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y447" s="59">
+      <c r="Y447" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z447" s="59">
+      <c r="Z447" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA447" s="59">
+      <c r="AA447" s="58">
         <v>52</v>
       </c>
-      <c r="AH447" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI447" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL447" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM447" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="59">
+      <c r="AH447" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI447" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM447" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="58">
         <v>447</v>
       </c>
-      <c r="B448" s="59">
+      <c r="B448" s="58">
         <v>10364</v>
       </c>
-      <c r="F448" s="59">
-        <v>1</v>
-      </c>
-      <c r="G448" s="59" t="s">
+      <c r="F448" s="58">
+        <v>1</v>
+      </c>
+      <c r="G448" s="58" t="s">
         <v>1530</v>
       </c>
-      <c r="I448" s="59" t="s">
+      <c r="I448" s="58" t="s">
         <v>1531</v>
       </c>
-      <c r="J448" s="59" t="s">
+      <c r="J448" s="58" t="s">
         <v>1532</v>
       </c>
-      <c r="L448" s="59">
+      <c r="L448" s="58">
         <v>-31</v>
       </c>
-      <c r="M448" s="59">
-        <v>0</v>
-      </c>
-      <c r="N448" s="59">
-        <v>0</v>
-      </c>
-      <c r="O448" s="59" t="s">
+      <c r="M448" s="58">
+        <v>0</v>
+      </c>
+      <c r="N448" s="58">
+        <v>0</v>
+      </c>
+      <c r="O448" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P448" s="59">
+      <c r="P448" s="58">
         <v>800</v>
       </c>
-      <c r="Q448" s="59" t="s">
+      <c r="Q448" s="58" t="s">
         <v>988</v>
       </c>
-      <c r="R448" s="60" t="s">
+      <c r="R448" s="59" t="s">
         <v>1533</v>
       </c>
-      <c r="W448" s="59" t="s">
+      <c r="W448" s="58" t="s">
         <v>1529</v>
       </c>
-      <c r="X448" s="59">
+      <c r="X448" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y448" s="59">
+      <c r="Y448" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z448" s="59">
+      <c r="Z448" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH448" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI448" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL448" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM448" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="59">
+      <c r="AH448" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI448" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM448" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="58">
         <v>448</v>
       </c>
-      <c r="B449" s="59">
+      <c r="B449" s="58">
         <v>10365</v>
       </c>
-      <c r="F449" s="59">
-        <v>1</v>
-      </c>
-      <c r="G449" s="59" t="s">
+      <c r="F449" s="58">
+        <v>1</v>
+      </c>
+      <c r="G449" s="58" t="s">
         <v>1534</v>
       </c>
-      <c r="I449" s="59" t="s">
+      <c r="I449" s="58" t="s">
         <v>1535</v>
       </c>
-      <c r="J449" s="59" t="s">
+      <c r="J449" s="58" t="s">
         <v>1536</v>
       </c>
-      <c r="L449" s="59">
+      <c r="L449" s="58">
         <v>-31</v>
       </c>
-      <c r="M449" s="59">
-        <v>0</v>
-      </c>
-      <c r="N449" s="59">
-        <v>0</v>
-      </c>
-      <c r="O449" s="59" t="s">
+      <c r="M449" s="58">
+        <v>0</v>
+      </c>
+      <c r="N449" s="58">
+        <v>0</v>
+      </c>
+      <c r="O449" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P449" s="59">
+      <c r="P449" s="58">
         <v>800</v>
       </c>
-      <c r="Q449" s="59" t="s">
+      <c r="Q449" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R449" s="60" t="s">
+      <c r="R449" s="59" t="s">
         <v>1537</v>
       </c>
-      <c r="W449" s="59" t="s">
+      <c r="W449" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X449" s="59">
+      <c r="X449" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y449" s="59">
+      <c r="Y449" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z449" s="59">
+      <c r="Z449" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA449" s="59">
+      <c r="AA449" s="58">
         <v>53</v>
       </c>
-      <c r="AH449" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI449" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL449" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM449" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="59">
+      <c r="AH449" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI449" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM449" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="58">
         <v>449</v>
       </c>
-      <c r="B450" s="59">
+      <c r="B450" s="58">
         <v>10366</v>
       </c>
-      <c r="F450" s="59">
-        <v>1</v>
-      </c>
-      <c r="G450" s="59" t="s">
+      <c r="F450" s="58">
+        <v>1</v>
+      </c>
+      <c r="G450" s="58" t="s">
         <v>1538</v>
       </c>
-      <c r="I450" s="59" t="s">
+      <c r="I450" s="58" t="s">
         <v>1539</v>
       </c>
-      <c r="J450" s="59" t="s">
+      <c r="J450" s="58" t="s">
         <v>1540</v>
       </c>
-      <c r="L450" s="59">
+      <c r="L450" s="58">
         <v>-31</v>
       </c>
-      <c r="M450" s="59">
-        <v>0</v>
-      </c>
-      <c r="N450" s="59">
-        <v>0</v>
-      </c>
-      <c r="O450" s="59" t="s">
+      <c r="M450" s="58">
+        <v>0</v>
+      </c>
+      <c r="N450" s="58">
+        <v>0</v>
+      </c>
+      <c r="O450" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P450" s="59">
+      <c r="P450" s="58">
         <v>3800</v>
       </c>
-      <c r="Q450" s="59" t="s">
+      <c r="Q450" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R450" s="60" t="s">
+      <c r="R450" s="59" t="s">
         <v>1541</v>
       </c>
-      <c r="W450" s="59" t="s">
+      <c r="W450" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X450" s="59">
+      <c r="X450" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y450" s="59">
+      <c r="Y450" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z450" s="59">
+      <c r="Z450" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA450" s="59">
+      <c r="AA450" s="58">
         <v>54</v>
       </c>
-      <c r="AH450" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI450" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM450" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="59">
+      <c r="AH450" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI450" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM450" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="58">
         <v>450</v>
       </c>
-      <c r="B451" s="59">
+      <c r="B451" s="58">
         <v>10367</v>
       </c>
-      <c r="F451" s="59">
-        <v>1</v>
-      </c>
-      <c r="G451" s="59" t="s">
+      <c r="F451" s="58">
+        <v>1</v>
+      </c>
+      <c r="G451" s="58" t="s">
         <v>1542</v>
       </c>
-      <c r="I451" s="59" t="s">
+      <c r="I451" s="58" t="s">
         <v>1543</v>
       </c>
-      <c r="J451" s="59" t="s">
+      <c r="J451" s="58" t="s">
         <v>1544</v>
       </c>
-      <c r="L451" s="59">
+      <c r="L451" s="58">
         <v>-31</v>
       </c>
-      <c r="M451" s="59">
-        <v>0</v>
-      </c>
-      <c r="N451" s="59">
-        <v>0</v>
-      </c>
-      <c r="O451" s="59" t="s">
+      <c r="M451" s="58">
+        <v>0</v>
+      </c>
+      <c r="N451" s="58">
+        <v>0</v>
+      </c>
+      <c r="O451" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P451" s="59">
+      <c r="P451" s="58">
         <v>3800</v>
       </c>
-      <c r="Q451" s="59" t="s">
+      <c r="Q451" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R451" s="60" t="s">
+      <c r="R451" s="59" t="s">
         <v>1545</v>
       </c>
-      <c r="W451" s="59" t="s">
+      <c r="W451" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X451" s="59">
+      <c r="X451" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y451" s="59">
+      <c r="Y451" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z451" s="59">
+      <c r="Z451" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH451" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI451" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM451" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:39" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="59">
+      <c r="AH451" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI451" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM451" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:39" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="58">
         <v>451</v>
       </c>
-      <c r="B452" s="59">
+      <c r="B452" s="58">
         <v>10368</v>
       </c>
-      <c r="F452" s="59">
-        <v>1</v>
-      </c>
-      <c r="G452" s="59" t="s">
+      <c r="F452" s="58">
+        <v>1</v>
+      </c>
+      <c r="G452" s="58" t="s">
         <v>1546</v>
       </c>
-      <c r="I452" s="59" t="s">
+      <c r="I452" s="58" t="s">
         <v>1547</v>
       </c>
-      <c r="J452" s="59" t="s">
+      <c r="J452" s="58" t="s">
         <v>1548</v>
       </c>
-      <c r="L452" s="59">
+      <c r="L452" s="58">
         <v>-31</v>
       </c>
-      <c r="M452" s="59">
-        <v>0</v>
-      </c>
-      <c r="N452" s="59">
-        <v>0</v>
-      </c>
-      <c r="O452" s="59" t="s">
+      <c r="M452" s="58">
+        <v>0</v>
+      </c>
+      <c r="N452" s="58">
+        <v>0</v>
+      </c>
+      <c r="O452" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P452" s="59">
+      <c r="P452" s="58">
         <v>3800</v>
       </c>
-      <c r="Q452" s="59" t="s">
+      <c r="Q452" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R452" s="60" t="s">
+      <c r="R452" s="59" t="s">
         <v>1549</v>
       </c>
-      <c r="W452" s="59" t="s">
+      <c r="W452" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X452" s="59">
+      <c r="X452" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y452" s="59">
+      <c r="Y452" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z452" s="59">
+      <c r="Z452" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA452" s="59">
+      <c r="AA452" s="58">
         <v>55</v>
       </c>
-      <c r="AH452" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI452" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM452" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="59">
+      <c r="AH452" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI452" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM452" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="58">
         <v>452</v>
       </c>
-      <c r="B453" s="59">
+      <c r="B453" s="58">
         <v>10369</v>
       </c>
-      <c r="F453" s="59">
-        <v>1</v>
-      </c>
-      <c r="G453" s="59" t="s">
+      <c r="F453" s="58">
+        <v>1</v>
+      </c>
+      <c r="G453" s="58" t="s">
         <v>1550</v>
       </c>
-      <c r="I453" s="59" t="s">
+      <c r="I453" s="58" t="s">
         <v>1551</v>
       </c>
-      <c r="J453" s="59" t="s">
+      <c r="J453" s="58" t="s">
         <v>1552</v>
       </c>
-      <c r="L453" s="59">
+      <c r="L453" s="58">
         <v>-31</v>
       </c>
-      <c r="M453" s="59">
-        <v>0</v>
-      </c>
-      <c r="N453" s="59">
-        <v>0</v>
-      </c>
-      <c r="O453" s="59" t="s">
+      <c r="M453" s="58">
+        <v>0</v>
+      </c>
+      <c r="N453" s="58">
+        <v>0</v>
+      </c>
+      <c r="O453" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P453" s="59">
+      <c r="P453" s="58">
         <v>9800</v>
       </c>
-      <c r="Q453" s="59" t="s">
+      <c r="Q453" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R453" s="60" t="s">
+      <c r="R453" s="59" t="s">
         <v>1553</v>
       </c>
-      <c r="W453" s="59" t="s">
+      <c r="W453" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X453" s="59">
+      <c r="X453" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y453" s="59">
+      <c r="Y453" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z453" s="59">
+      <c r="Z453" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA453" s="59">
+      <c r="AA453" s="58">
         <v>56</v>
       </c>
-      <c r="AH453" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI453" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL453" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM453" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="59">
+      <c r="AH453" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI453" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM453" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="58">
         <v>453</v>
       </c>
-      <c r="B454" s="59">
+      <c r="B454" s="58">
         <v>10370</v>
       </c>
-      <c r="F454" s="59">
-        <v>1</v>
-      </c>
-      <c r="G454" s="59" t="s">
+      <c r="F454" s="58">
+        <v>1</v>
+      </c>
+      <c r="G454" s="58" t="s">
         <v>1554</v>
       </c>
-      <c r="I454" s="59" t="s">
+      <c r="I454" s="58" t="s">
         <v>1555</v>
       </c>
-      <c r="J454" s="59" t="s">
+      <c r="J454" s="58" t="s">
         <v>1556</v>
       </c>
-      <c r="L454" s="59">
+      <c r="L454" s="58">
         <v>-31</v>
       </c>
-      <c r="M454" s="59">
-        <v>0</v>
-      </c>
-      <c r="N454" s="59">
-        <v>0</v>
-      </c>
-      <c r="O454" s="59" t="s">
+      <c r="M454" s="58">
+        <v>0</v>
+      </c>
+      <c r="N454" s="58">
+        <v>0</v>
+      </c>
+      <c r="O454" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P454" s="59">
+      <c r="P454" s="58">
         <v>9800</v>
       </c>
-      <c r="Q454" s="59" t="s">
+      <c r="Q454" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R454" s="60" t="s">
+      <c r="R454" s="59" t="s">
         <v>1557</v>
       </c>
-      <c r="W454" s="59" t="s">
+      <c r="W454" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X454" s="59">
+      <c r="X454" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y454" s="59">
+      <c r="Y454" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z454" s="59">
+      <c r="Z454" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH454" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI454" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL454" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM454" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="59">
+      <c r="AH454" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI454" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM454" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="58">
         <v>454</v>
       </c>
-      <c r="B455" s="59">
+      <c r="B455" s="58">
         <v>10371</v>
       </c>
-      <c r="F455" s="59">
-        <v>1</v>
-      </c>
-      <c r="G455" s="59" t="s">
+      <c r="F455" s="58">
+        <v>1</v>
+      </c>
+      <c r="G455" s="58" t="s">
         <v>1558</v>
       </c>
-      <c r="I455" s="59" t="s">
+      <c r="I455" s="58" t="s">
         <v>1559</v>
       </c>
-      <c r="J455" s="59" t="s">
+      <c r="J455" s="58" t="s">
         <v>1560</v>
       </c>
-      <c r="L455" s="59">
+      <c r="L455" s="58">
         <v>-31</v>
       </c>
-      <c r="M455" s="59">
-        <v>0</v>
-      </c>
-      <c r="N455" s="59">
-        <v>0</v>
-      </c>
-      <c r="O455" s="59" t="s">
+      <c r="M455" s="58">
+        <v>0</v>
+      </c>
+      <c r="N455" s="58">
+        <v>0</v>
+      </c>
+      <c r="O455" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P455" s="59">
+      <c r="P455" s="58">
         <v>9800</v>
       </c>
-      <c r="Q455" s="59" t="s">
+      <c r="Q455" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R455" s="60" t="s">
+      <c r="R455" s="59" t="s">
         <v>1686</v>
       </c>
-      <c r="W455" s="59" t="s">
+      <c r="W455" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X455" s="59">
+      <c r="X455" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y455" s="59">
+      <c r="Y455" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z455" s="59">
+      <c r="Z455" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA455" s="59">
+      <c r="AA455" s="58">
         <v>57</v>
       </c>
-      <c r="AH455" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI455" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL455" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM455" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="59">
+      <c r="AH455" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI455" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM455" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="58">
         <v>455</v>
       </c>
-      <c r="B456" s="59">
+      <c r="B456" s="58">
         <v>10372</v>
       </c>
-      <c r="F456" s="59">
-        <v>1</v>
-      </c>
-      <c r="G456" s="59" t="s">
+      <c r="F456" s="58">
+        <v>1</v>
+      </c>
+      <c r="G456" s="58" t="s">
         <v>1561</v>
       </c>
-      <c r="I456" s="59" t="s">
+      <c r="I456" s="58" t="s">
         <v>1562</v>
       </c>
-      <c r="J456" s="59" t="s">
+      <c r="J456" s="58" t="s">
         <v>1563</v>
       </c>
-      <c r="L456" s="59">
+      <c r="L456" s="58">
         <v>-31</v>
       </c>
-      <c r="M456" s="59">
-        <v>0</v>
-      </c>
-      <c r="N456" s="59">
-        <v>0</v>
-      </c>
-      <c r="O456" s="59" t="s">
+      <c r="M456" s="58">
+        <v>0</v>
+      </c>
+      <c r="N456" s="58">
+        <v>0</v>
+      </c>
+      <c r="O456" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P456" s="59">
+      <c r="P456" s="58">
         <v>19800</v>
       </c>
-      <c r="Q456" s="59" t="s">
+      <c r="Q456" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R456" s="60" t="s">
+      <c r="R456" s="59" t="s">
         <v>1564</v>
       </c>
-      <c r="W456" s="59" t="s">
+      <c r="W456" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X456" s="59">
+      <c r="X456" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y456" s="59">
+      <c r="Y456" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z456" s="59">
+      <c r="Z456" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA456" s="59">
+      <c r="AA456" s="58">
         <v>58</v>
       </c>
-      <c r="AH456" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI456" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM456" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="59">
+      <c r="AH456" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI456" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM456" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="58">
         <v>456</v>
       </c>
-      <c r="B457" s="59">
+      <c r="B457" s="58">
         <v>10373</v>
       </c>
-      <c r="F457" s="59">
-        <v>1</v>
-      </c>
-      <c r="G457" s="59" t="s">
+      <c r="F457" s="58">
+        <v>1</v>
+      </c>
+      <c r="G457" s="58" t="s">
         <v>1565</v>
       </c>
-      <c r="I457" s="59" t="s">
+      <c r="I457" s="58" t="s">
         <v>1566</v>
       </c>
-      <c r="J457" s="59" t="s">
+      <c r="J457" s="58" t="s">
         <v>1567</v>
       </c>
-      <c r="L457" s="59">
+      <c r="L457" s="58">
         <v>-31</v>
       </c>
-      <c r="M457" s="59">
-        <v>0</v>
-      </c>
-      <c r="N457" s="59">
-        <v>0</v>
-      </c>
-      <c r="O457" s="59" t="s">
+      <c r="M457" s="58">
+        <v>0</v>
+      </c>
+      <c r="N457" s="58">
+        <v>0</v>
+      </c>
+      <c r="O457" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P457" s="59">
+      <c r="P457" s="58">
         <v>19800</v>
       </c>
-      <c r="Q457" s="59" t="s">
+      <c r="Q457" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R457" s="60" t="s">
+      <c r="R457" s="59" t="s">
         <v>1568</v>
       </c>
-      <c r="W457" s="59" t="s">
+      <c r="W457" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X457" s="59">
+      <c r="X457" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y457" s="59">
+      <c r="Y457" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z457" s="59">
+      <c r="Z457" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH457" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI457" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM457" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="59">
+      <c r="AH457" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI457" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM457" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="58">
         <v>457</v>
       </c>
-      <c r="B458" s="59">
+      <c r="B458" s="58">
         <v>10374</v>
       </c>
-      <c r="F458" s="59">
-        <v>1</v>
-      </c>
-      <c r="G458" s="59" t="s">
+      <c r="F458" s="58">
+        <v>1</v>
+      </c>
+      <c r="G458" s="58" t="s">
         <v>1569</v>
       </c>
-      <c r="I458" s="59" t="s">
+      <c r="I458" s="58" t="s">
         <v>1570</v>
       </c>
-      <c r="J458" s="59" t="s">
+      <c r="J458" s="58" t="s">
         <v>1571</v>
       </c>
-      <c r="L458" s="59">
+      <c r="L458" s="58">
         <v>-31</v>
       </c>
-      <c r="M458" s="59">
-        <v>0</v>
-      </c>
-      <c r="N458" s="59">
-        <v>0</v>
-      </c>
-      <c r="O458" s="59" t="s">
+      <c r="M458" s="58">
+        <v>0</v>
+      </c>
+      <c r="N458" s="58">
+        <v>0</v>
+      </c>
+      <c r="O458" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P458" s="59">
+      <c r="P458" s="58">
         <v>19800</v>
       </c>
-      <c r="Q458" s="59" t="s">
+      <c r="Q458" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R458" s="60" t="s">
+      <c r="R458" s="59" t="s">
         <v>1572</v>
       </c>
-      <c r="W458" s="59" t="s">
+      <c r="W458" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X458" s="59">
+      <c r="X458" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y458" s="59">
+      <c r="Y458" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z458" s="59">
+      <c r="Z458" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA458" s="59">
+      <c r="AA458" s="58">
         <v>59</v>
       </c>
-      <c r="AH458" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI458" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM458" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="59">
+      <c r="AH458" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI458" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM458" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="58">
         <v>458</v>
       </c>
-      <c r="B459" s="59">
+      <c r="B459" s="58">
         <v>10375</v>
       </c>
-      <c r="F459" s="59">
-        <v>1</v>
-      </c>
-      <c r="G459" s="59" t="s">
+      <c r="F459" s="58">
+        <v>1</v>
+      </c>
+      <c r="G459" s="58" t="s">
         <v>1573</v>
       </c>
-      <c r="I459" s="59" t="s">
+      <c r="I459" s="58" t="s">
         <v>1574</v>
       </c>
-      <c r="J459" s="59" t="s">
+      <c r="J459" s="58" t="s">
         <v>1575</v>
       </c>
-      <c r="L459" s="59">
+      <c r="L459" s="58">
         <v>-31</v>
       </c>
-      <c r="M459" s="59">
-        <v>0</v>
-      </c>
-      <c r="N459" s="59">
-        <v>0</v>
-      </c>
-      <c r="O459" s="59" t="s">
+      <c r="M459" s="58">
+        <v>0</v>
+      </c>
+      <c r="N459" s="58">
+        <v>0</v>
+      </c>
+      <c r="O459" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P459" s="59">
+      <c r="P459" s="58">
         <v>49800</v>
       </c>
-      <c r="Q459" s="59" t="s">
+      <c r="Q459" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R459" s="60" t="s">
+      <c r="R459" s="59" t="s">
         <v>1576</v>
       </c>
-      <c r="W459" s="59" t="s">
+      <c r="W459" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X459" s="59">
+      <c r="X459" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y459" s="59">
+      <c r="Y459" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z459" s="59">
+      <c r="Z459" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA459" s="59">
+      <c r="AA459" s="58">
         <v>60</v>
       </c>
-      <c r="AH459" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI459" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL459" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM459" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="59">
+      <c r="AH459" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI459" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM459" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="58">
         <v>459</v>
       </c>
-      <c r="B460" s="59">
+      <c r="B460" s="58">
         <v>10376</v>
       </c>
-      <c r="F460" s="59">
-        <v>1</v>
-      </c>
-      <c r="G460" s="59" t="s">
+      <c r="F460" s="58">
+        <v>1</v>
+      </c>
+      <c r="G460" s="58" t="s">
         <v>1577</v>
       </c>
-      <c r="I460" s="59" t="s">
+      <c r="I460" s="58" t="s">
         <v>1578</v>
       </c>
-      <c r="J460" s="59" t="s">
+      <c r="J460" s="58" t="s">
         <v>1579</v>
       </c>
-      <c r="L460" s="59">
+      <c r="L460" s="58">
         <v>-31</v>
       </c>
-      <c r="M460" s="59">
-        <v>0</v>
-      </c>
-      <c r="N460" s="59">
-        <v>0</v>
-      </c>
-      <c r="O460" s="59" t="s">
+      <c r="M460" s="58">
+        <v>0</v>
+      </c>
+      <c r="N460" s="58">
+        <v>0</v>
+      </c>
+      <c r="O460" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P460" s="59">
+      <c r="P460" s="58">
         <v>49800</v>
       </c>
-      <c r="Q460" s="59" t="s">
+      <c r="Q460" s="58" t="s">
         <v>988</v>
       </c>
-      <c r="R460" s="60" t="s">
+      <c r="R460" s="59" t="s">
         <v>1580</v>
       </c>
-      <c r="W460" s="59" t="s">
+      <c r="W460" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X460" s="59">
+      <c r="X460" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y460" s="59">
+      <c r="Y460" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z460" s="59">
+      <c r="Z460" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH460" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI460" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL460" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM460" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="59">
+      <c r="AH460" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI460" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM460" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="58">
         <v>460</v>
       </c>
-      <c r="B461" s="59">
+      <c r="B461" s="58">
         <v>10377</v>
       </c>
-      <c r="F461" s="59">
-        <v>1</v>
-      </c>
-      <c r="G461" s="59" t="s">
+      <c r="F461" s="58">
+        <v>1</v>
+      </c>
+      <c r="G461" s="58" t="s">
         <v>1581</v>
       </c>
-      <c r="I461" s="59" t="s">
+      <c r="I461" s="58" t="s">
         <v>1582</v>
       </c>
-      <c r="J461" s="59" t="s">
+      <c r="J461" s="58" t="s">
         <v>1583</v>
       </c>
-      <c r="L461" s="59">
+      <c r="L461" s="58">
         <v>-31</v>
       </c>
-      <c r="M461" s="59">
-        <v>0</v>
-      </c>
-      <c r="N461" s="59">
-        <v>0</v>
-      </c>
-      <c r="O461" s="59" t="s">
+      <c r="M461" s="58">
+        <v>0</v>
+      </c>
+      <c r="N461" s="58">
+        <v>0</v>
+      </c>
+      <c r="O461" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P461" s="59">
+      <c r="P461" s="58">
         <v>49800</v>
       </c>
-      <c r="Q461" s="59" t="s">
+      <c r="Q461" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R461" s="60" t="s">
+      <c r="R461" s="59" t="s">
         <v>1584</v>
       </c>
-      <c r="W461" s="59" t="s">
+      <c r="W461" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X461" s="59">
+      <c r="X461" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y461" s="59">
+      <c r="Y461" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z461" s="59">
+      <c r="Z461" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA461" s="59">
+      <c r="AA461" s="58">
         <v>61</v>
       </c>
-      <c r="AH461" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI461" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL461" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM461" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="59">
+      <c r="AH461" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI461" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM461" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="58">
         <v>461</v>
       </c>
-      <c r="B462" s="59">
+      <c r="B462" s="58">
         <v>10378</v>
       </c>
-      <c r="F462" s="59">
-        <v>1</v>
-      </c>
-      <c r="G462" s="59" t="s">
+      <c r="F462" s="58">
+        <v>1</v>
+      </c>
+      <c r="G462" s="58" t="s">
         <v>1585</v>
       </c>
-      <c r="I462" s="59" t="s">
+      <c r="I462" s="58" t="s">
         <v>1586</v>
       </c>
-      <c r="J462" s="59" t="s">
+      <c r="J462" s="58" t="s">
         <v>1587</v>
       </c>
-      <c r="L462" s="59">
+      <c r="L462" s="58">
         <v>-31</v>
       </c>
-      <c r="M462" s="59">
-        <v>0</v>
-      </c>
-      <c r="N462" s="59">
-        <v>0</v>
-      </c>
-      <c r="O462" s="59" t="s">
+      <c r="M462" s="58">
+        <v>0</v>
+      </c>
+      <c r="N462" s="58">
+        <v>0</v>
+      </c>
+      <c r="O462" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P462" s="59">
+      <c r="P462" s="58">
         <v>99800</v>
       </c>
-      <c r="Q462" s="59" t="s">
+      <c r="Q462" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R462" s="60" t="s">
+      <c r="R462" s="59" t="s">
         <v>1588</v>
       </c>
-      <c r="W462" s="59" t="s">
+      <c r="W462" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X462" s="59">
+      <c r="X462" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y462" s="59">
+      <c r="Y462" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z462" s="59">
+      <c r="Z462" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA462" s="59">
+      <c r="AA462" s="58">
         <v>62</v>
       </c>
-      <c r="AH462" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI462" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM462" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="59">
+      <c r="AH462" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI462" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM462" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="58">
         <v>462</v>
       </c>
-      <c r="B463" s="59">
+      <c r="B463" s="58">
         <v>10379</v>
       </c>
-      <c r="F463" s="59">
-        <v>1</v>
-      </c>
-      <c r="G463" s="59" t="s">
+      <c r="F463" s="58">
+        <v>1</v>
+      </c>
+      <c r="G463" s="58" t="s">
         <v>1589</v>
       </c>
-      <c r="I463" s="59" t="s">
+      <c r="I463" s="58" t="s">
         <v>1590</v>
       </c>
-      <c r="J463" s="59" t="s">
+      <c r="J463" s="58" t="s">
         <v>1591</v>
       </c>
-      <c r="L463" s="59">
+      <c r="L463" s="58">
         <v>-31</v>
       </c>
-      <c r="M463" s="59">
-        <v>0</v>
-      </c>
-      <c r="N463" s="59">
-        <v>0</v>
-      </c>
-      <c r="O463" s="59" t="s">
+      <c r="M463" s="58">
+        <v>0</v>
+      </c>
+      <c r="N463" s="58">
+        <v>0</v>
+      </c>
+      <c r="O463" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P463" s="59">
+      <c r="P463" s="58">
         <v>99800</v>
       </c>
-      <c r="Q463" s="59" t="s">
+      <c r="Q463" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R463" s="60" t="s">
+      <c r="R463" s="59" t="s">
         <v>1592</v>
       </c>
-      <c r="W463" s="59" t="s">
+      <c r="W463" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X463" s="59">
+      <c r="X463" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y463" s="59">
+      <c r="Y463" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z463" s="59">
+      <c r="Z463" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH463" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI463" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM463" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="59">
+      <c r="AH463" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI463" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM463" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="58">
         <v>463</v>
       </c>
-      <c r="B464" s="59">
+      <c r="B464" s="58">
         <v>10380</v>
       </c>
-      <c r="F464" s="59">
-        <v>1</v>
-      </c>
-      <c r="G464" s="59" t="s">
+      <c r="F464" s="58">
+        <v>1</v>
+      </c>
+      <c r="G464" s="58" t="s">
         <v>1593</v>
       </c>
-      <c r="I464" s="59" t="s">
+      <c r="I464" s="58" t="s">
         <v>1594</v>
       </c>
-      <c r="J464" s="59" t="s">
+      <c r="J464" s="58" t="s">
         <v>1595</v>
       </c>
-      <c r="L464" s="59">
+      <c r="L464" s="58">
         <v>-31</v>
       </c>
-      <c r="M464" s="59">
-        <v>0</v>
-      </c>
-      <c r="N464" s="59">
-        <v>0</v>
-      </c>
-      <c r="O464" s="59" t="s">
+      <c r="M464" s="58">
+        <v>0</v>
+      </c>
+      <c r="N464" s="58">
+        <v>0</v>
+      </c>
+      <c r="O464" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P464" s="59">
+      <c r="P464" s="58">
         <v>99800</v>
       </c>
-      <c r="Q464" s="59" t="s">
+      <c r="Q464" s="58" t="s">
         <v>988</v>
       </c>
-      <c r="R464" s="60" t="s">
+      <c r="R464" s="59" t="s">
         <v>1596</v>
       </c>
-      <c r="W464" s="59" t="s">
+      <c r="W464" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X464" s="59">
+      <c r="X464" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y464" s="59">
+      <c r="Y464" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z464" s="59">
+      <c r="Z464" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA464" s="59">
+      <c r="AA464" s="58">
         <v>63</v>
       </c>
-      <c r="AH464" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI464" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM464" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="59">
+      <c r="AH464" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI464" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM464" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="58">
         <v>464</v>
       </c>
-      <c r="B465" s="59">
+      <c r="B465" s="58">
         <v>10381</v>
       </c>
-      <c r="F465" s="59">
-        <v>1</v>
-      </c>
-      <c r="G465" s="59" t="s">
+      <c r="F465" s="58">
+        <v>1</v>
+      </c>
+      <c r="G465" s="58" t="s">
         <v>1597</v>
       </c>
-      <c r="I465" s="59" t="s">
+      <c r="I465" s="58" t="s">
         <v>1598</v>
       </c>
-      <c r="J465" s="59" t="s">
+      <c r="J465" s="58" t="s">
         <v>1599</v>
       </c>
-      <c r="L465" s="59">
+      <c r="L465" s="58">
         <v>-31</v>
       </c>
-      <c r="M465" s="59">
-        <v>0</v>
-      </c>
-      <c r="N465" s="59">
-        <v>0</v>
-      </c>
-      <c r="O465" s="59" t="s">
+      <c r="M465" s="58">
+        <v>0</v>
+      </c>
+      <c r="N465" s="58">
+        <v>0</v>
+      </c>
+      <c r="O465" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P465" s="59">
+      <c r="P465" s="58">
         <v>249800</v>
       </c>
-      <c r="Q465" s="59" t="s">
+      <c r="Q465" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R465" s="60" t="s">
+      <c r="R465" s="59" t="s">
         <v>1600</v>
       </c>
-      <c r="W465" s="59" t="s">
+      <c r="W465" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X465" s="59">
+      <c r="X465" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y465" s="59">
+      <c r="Y465" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z465" s="59">
+      <c r="Z465" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA465" s="59">
+      <c r="AA465" s="58">
         <v>64</v>
       </c>
-      <c r="AH465" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI465" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL465" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM465" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="59">
+      <c r="AH465" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI465" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM465" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="58">
         <v>465</v>
       </c>
-      <c r="B466" s="59">
+      <c r="B466" s="58">
         <v>10382</v>
       </c>
-      <c r="F466" s="59">
-        <v>1</v>
-      </c>
-      <c r="G466" s="59" t="s">
+      <c r="F466" s="58">
+        <v>1</v>
+      </c>
+      <c r="G466" s="58" t="s">
         <v>1601</v>
       </c>
-      <c r="I466" s="59" t="s">
+      <c r="I466" s="58" t="s">
         <v>1602</v>
       </c>
-      <c r="J466" s="59" t="s">
+      <c r="J466" s="58" t="s">
         <v>1603</v>
       </c>
-      <c r="L466" s="59">
+      <c r="L466" s="58">
         <v>-31</v>
       </c>
-      <c r="M466" s="59">
-        <v>0</v>
-      </c>
-      <c r="N466" s="59">
-        <v>0</v>
-      </c>
-      <c r="O466" s="59" t="s">
+      <c r="M466" s="58">
+        <v>0</v>
+      </c>
+      <c r="N466" s="58">
+        <v>0</v>
+      </c>
+      <c r="O466" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P466" s="59">
+      <c r="P466" s="58">
         <v>249800</v>
       </c>
-      <c r="Q466" s="59" t="s">
+      <c r="Q466" s="58" t="s">
         <v>988</v>
       </c>
-      <c r="R466" s="60" t="s">
+      <c r="R466" s="59" t="s">
         <v>1604</v>
       </c>
-      <c r="W466" s="59" t="s">
+      <c r="W466" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X466" s="59">
+      <c r="X466" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y466" s="59">
+      <c r="Y466" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z466" s="59">
+      <c r="Z466" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH466" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI466" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL466" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM466" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="59">
+      <c r="AH466" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM466" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="58">
         <v>466</v>
       </c>
-      <c r="B467" s="59">
+      <c r="B467" s="58">
         <v>10383</v>
       </c>
-      <c r="F467" s="59">
-        <v>1</v>
-      </c>
-      <c r="G467" s="59" t="s">
+      <c r="F467" s="58">
+        <v>1</v>
+      </c>
+      <c r="G467" s="58" t="s">
         <v>1605</v>
       </c>
-      <c r="I467" s="59" t="s">
+      <c r="I467" s="58" t="s">
         <v>1606</v>
       </c>
-      <c r="J467" s="59" t="s">
+      <c r="J467" s="58" t="s">
         <v>1607</v>
       </c>
-      <c r="L467" s="59">
+      <c r="L467" s="58">
         <v>-31</v>
       </c>
-      <c r="M467" s="59">
-        <v>0</v>
-      </c>
-      <c r="N467" s="59">
-        <v>0</v>
-      </c>
-      <c r="O467" s="59" t="s">
+      <c r="M467" s="58">
+        <v>0</v>
+      </c>
+      <c r="N467" s="58">
+        <v>0</v>
+      </c>
+      <c r="O467" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P467" s="59">
+      <c r="P467" s="58">
         <v>249800</v>
       </c>
-      <c r="Q467" s="59" t="s">
+      <c r="Q467" s="58" t="s">
         <v>988</v>
       </c>
-      <c r="R467" s="60" t="s">
+      <c r="R467" s="59" t="s">
         <v>1608</v>
       </c>
-      <c r="W467" s="59" t="s">
+      <c r="W467" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="X467" s="59">
+      <c r="X467" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y467" s="59">
+      <c r="Y467" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z467" s="59">
+      <c r="Z467" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA467" s="59">
+      <c r="AA467" s="58">
         <v>65</v>
       </c>
-      <c r="AH467" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI467" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL467" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM467" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="59">
+      <c r="AH467" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM467" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="58">
         <v>467</v>
       </c>
-      <c r="B468" s="59">
+      <c r="B468" s="58">
         <v>10384</v>
       </c>
-      <c r="F468" s="59">
-        <v>1</v>
-      </c>
-      <c r="G468" s="59" t="s">
+      <c r="F468" s="58">
+        <v>1</v>
+      </c>
+      <c r="G468" s="58" t="s">
         <v>1609</v>
       </c>
-      <c r="I468" s="59" t="s">
+      <c r="I468" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J468" s="59" t="s">
+      <c r="J468" s="58" t="s">
         <v>1612</v>
       </c>
-      <c r="L468" s="59">
+      <c r="L468" s="58">
         <v>-31</v>
       </c>
-      <c r="M468" s="59">
-        <v>0</v>
-      </c>
-      <c r="N468" s="59">
-        <v>0</v>
-      </c>
-      <c r="O468" s="59" t="s">
+      <c r="M468" s="58">
+        <v>0</v>
+      </c>
+      <c r="N468" s="58">
+        <v>0</v>
+      </c>
+      <c r="O468" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P468" s="59">
+      <c r="P468" s="58">
         <v>600</v>
       </c>
-      <c r="Q468" s="59" t="s">
+      <c r="Q468" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R468" s="60" t="s">
+      <c r="R468" s="59" t="s">
         <v>1613</v>
       </c>
-      <c r="W468" s="59" t="s">
+      <c r="W468" s="58" t="s">
         <v>1614</v>
       </c>
-      <c r="X468" s="59">
+      <c r="X468" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y468" s="59">
+      <c r="Y468" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z468" s="59">
+      <c r="Z468" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH468" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI468" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM468" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="59">
+      <c r="AH468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM468" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="58">
         <v>468</v>
       </c>
-      <c r="B469" s="59">
+      <c r="B469" s="58">
         <v>10385</v>
       </c>
-      <c r="F469" s="59">
-        <v>1</v>
-      </c>
-      <c r="G469" s="59" t="s">
+      <c r="F469" s="58">
+        <v>1</v>
+      </c>
+      <c r="G469" s="58" t="s">
         <v>1615</v>
       </c>
-      <c r="I469" s="59" t="s">
+      <c r="I469" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J469" s="59" t="s">
+      <c r="J469" s="58" t="s">
         <v>1616</v>
       </c>
-      <c r="L469" s="59">
+      <c r="L469" s="58">
         <v>-31</v>
       </c>
-      <c r="M469" s="59">
-        <v>0</v>
-      </c>
-      <c r="N469" s="59">
-        <v>0</v>
-      </c>
-      <c r="O469" s="59" t="s">
+      <c r="M469" s="58">
+        <v>0</v>
+      </c>
+      <c r="N469" s="58">
+        <v>0</v>
+      </c>
+      <c r="O469" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P469" s="59">
+      <c r="P469" s="58">
         <v>3000</v>
       </c>
-      <c r="Q469" s="59" t="s">
+      <c r="Q469" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R469" s="60" t="s">
+      <c r="R469" s="59" t="s">
         <v>1617</v>
       </c>
-      <c r="W469" s="59" t="s">
+      <c r="W469" s="58" t="s">
         <v>1614</v>
       </c>
-      <c r="X469" s="59">
+      <c r="X469" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y469" s="59">
+      <c r="Y469" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z469" s="59">
+      <c r="Z469" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH469" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI469" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM469" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="59">
+      <c r="AH469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM469" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="58">
         <v>469</v>
       </c>
-      <c r="B470" s="59">
+      <c r="B470" s="58">
         <v>10386</v>
       </c>
-      <c r="F470" s="59">
-        <v>1</v>
-      </c>
-      <c r="G470" s="59" t="s">
+      <c r="F470" s="58">
+        <v>1</v>
+      </c>
+      <c r="G470" s="58" t="s">
         <v>1618</v>
       </c>
-      <c r="I470" s="59" t="s">
+      <c r="I470" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J470" s="59" t="s">
+      <c r="J470" s="58" t="s">
         <v>1619</v>
       </c>
-      <c r="L470" s="59">
+      <c r="L470" s="58">
         <v>-31</v>
       </c>
-      <c r="M470" s="59">
-        <v>0</v>
-      </c>
-      <c r="N470" s="59">
-        <v>0</v>
-      </c>
-      <c r="O470" s="59" t="s">
+      <c r="M470" s="58">
+        <v>0</v>
+      </c>
+      <c r="N470" s="58">
+        <v>0</v>
+      </c>
+      <c r="O470" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P470" s="59">
+      <c r="P470" s="58">
         <v>6800</v>
       </c>
-      <c r="Q470" s="59" t="s">
+      <c r="Q470" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R470" s="60" t="s">
+      <c r="R470" s="59" t="s">
         <v>1620</v>
       </c>
-      <c r="W470" s="59" t="s">
+      <c r="W470" s="58" t="s">
         <v>1614</v>
       </c>
-      <c r="X470" s="59">
+      <c r="X470" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y470" s="59">
+      <c r="Y470" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z470" s="59">
+      <c r="Z470" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH470" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI470" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM470" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="59">
+      <c r="AH470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM470" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="58">
         <v>470</v>
       </c>
-      <c r="B471" s="59">
+      <c r="B471" s="58">
         <v>10387</v>
       </c>
-      <c r="F471" s="59">
-        <v>1</v>
-      </c>
-      <c r="G471" s="59" t="s">
+      <c r="F471" s="58">
+        <v>1</v>
+      </c>
+      <c r="G471" s="58" t="s">
         <v>1621</v>
       </c>
-      <c r="I471" s="59" t="s">
+      <c r="I471" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J471" s="59" t="s">
+      <c r="J471" s="58" t="s">
         <v>1622</v>
       </c>
-      <c r="L471" s="59">
+      <c r="L471" s="58">
         <v>-31</v>
       </c>
-      <c r="M471" s="59">
-        <v>0</v>
-      </c>
-      <c r="N471" s="59">
-        <v>0</v>
-      </c>
-      <c r="O471" s="59" t="s">
+      <c r="M471" s="58">
+        <v>0</v>
+      </c>
+      <c r="N471" s="58">
+        <v>0</v>
+      </c>
+      <c r="O471" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P471" s="59">
+      <c r="P471" s="58">
         <v>9800</v>
       </c>
-      <c r="Q471" s="59" t="s">
+      <c r="Q471" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R471" s="60" t="s">
+      <c r="R471" s="59" t="s">
         <v>1623</v>
       </c>
-      <c r="W471" s="59" t="s">
+      <c r="W471" s="58" t="s">
         <v>1624</v>
       </c>
-      <c r="X471" s="59">
+      <c r="X471" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y471" s="59">
+      <c r="Y471" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z471" s="59">
+      <c r="Z471" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH471" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI471" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL471" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM471" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="59">
+      <c r="AH471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM471" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="58">
         <v>471</v>
       </c>
-      <c r="B472" s="59">
+      <c r="B472" s="58">
         <v>10388</v>
       </c>
-      <c r="F472" s="59">
-        <v>1</v>
-      </c>
-      <c r="G472" s="59" t="s">
+      <c r="F472" s="58">
+        <v>1</v>
+      </c>
+      <c r="G472" s="58" t="s">
         <v>1625</v>
       </c>
-      <c r="I472" s="59" t="s">
+      <c r="I472" s="58" t="s">
         <v>1610</v>
       </c>
-      <c r="J472" s="59" t="s">
+      <c r="J472" s="58" t="s">
         <v>1626</v>
       </c>
-      <c r="L472" s="59">
+      <c r="L472" s="58">
         <v>-31</v>
       </c>
-      <c r="M472" s="59">
-        <v>0</v>
-      </c>
-      <c r="N472" s="59">
-        <v>0</v>
-      </c>
-      <c r="O472" s="59" t="s">
+      <c r="M472" s="58">
+        <v>0</v>
+      </c>
+      <c r="N472" s="58">
+        <v>0</v>
+      </c>
+      <c r="O472" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P472" s="59">
+      <c r="P472" s="58">
         <v>19800</v>
       </c>
-      <c r="Q472" s="59" t="s">
+      <c r="Q472" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R472" s="60" t="s">
+      <c r="R472" s="59" t="s">
         <v>1627</v>
       </c>
-      <c r="W472" s="59" t="s">
+      <c r="W472" s="58" t="s">
         <v>1624</v>
       </c>
-      <c r="X472" s="59">
+      <c r="X472" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y472" s="59">
+      <c r="Y472" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z472" s="59">
+      <c r="Z472" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH472" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI472" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL472" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM472" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="59">
+      <c r="AH472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM472" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="58">
         <v>472</v>
       </c>
-      <c r="B473" s="59">
+      <c r="B473" s="58">
         <v>10389</v>
       </c>
-      <c r="F473" s="59">
-        <v>1</v>
-      </c>
-      <c r="G473" s="59" t="s">
+      <c r="F473" s="58">
+        <v>1</v>
+      </c>
+      <c r="G473" s="58" t="s">
         <v>1628</v>
       </c>
-      <c r="I473" s="59" t="s">
+      <c r="I473" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J473" s="59" t="s">
+      <c r="J473" s="58" t="s">
         <v>1629</v>
       </c>
-      <c r="L473" s="59">
+      <c r="L473" s="58">
         <v>-31</v>
       </c>
-      <c r="M473" s="59">
-        <v>0</v>
-      </c>
-      <c r="N473" s="59">
-        <v>0</v>
-      </c>
-      <c r="O473" s="59" t="s">
+      <c r="M473" s="58">
+        <v>0</v>
+      </c>
+      <c r="N473" s="58">
+        <v>0</v>
+      </c>
+      <c r="O473" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P473" s="59">
+      <c r="P473" s="58">
         <v>49800</v>
       </c>
-      <c r="Q473" s="59" t="s">
+      <c r="Q473" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R473" s="60" t="s">
+      <c r="R473" s="59" t="s">
         <v>1630</v>
       </c>
-      <c r="W473" s="59" t="s">
+      <c r="W473" s="58" t="s">
         <v>1624</v>
       </c>
-      <c r="X473" s="59">
+      <c r="X473" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y473" s="59">
+      <c r="Y473" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z473" s="59">
+      <c r="Z473" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH473" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI473" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL473" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM473" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="59">
+      <c r="AH473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM473" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="58">
         <v>473</v>
       </c>
-      <c r="B474" s="59">
+      <c r="B474" s="58">
         <v>10390</v>
       </c>
-      <c r="F474" s="59">
-        <v>1</v>
-      </c>
-      <c r="G474" s="59" t="s">
+      <c r="F474" s="58">
+        <v>1</v>
+      </c>
+      <c r="G474" s="58" t="s">
         <v>1631</v>
       </c>
-      <c r="I474" s="59" t="s">
+      <c r="I474" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J474" s="59" t="s">
+      <c r="J474" s="58" t="s">
         <v>1632</v>
       </c>
-      <c r="L474" s="59">
+      <c r="L474" s="58">
         <v>-31</v>
       </c>
-      <c r="M474" s="59">
-        <v>0</v>
-      </c>
-      <c r="N474" s="59">
-        <v>0</v>
-      </c>
-      <c r="O474" s="59" t="s">
+      <c r="M474" s="58">
+        <v>0</v>
+      </c>
+      <c r="N474" s="58">
+        <v>0</v>
+      </c>
+      <c r="O474" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P474" s="59">
+      <c r="P474" s="58">
         <v>99800</v>
       </c>
-      <c r="Q474" s="59" t="s">
+      <c r="Q474" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R474" s="60" t="s">
+      <c r="R474" s="59" t="s">
         <v>1633</v>
       </c>
-      <c r="W474" s="59" t="s">
+      <c r="W474" s="58" t="s">
         <v>1624</v>
       </c>
-      <c r="X474" s="59">
+      <c r="X474" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y474" s="59">
+      <c r="Y474" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z474" s="59">
+      <c r="Z474" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH474" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI474" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL474" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM474" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="59">
+      <c r="AH474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM474" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="58">
         <v>474</v>
       </c>
-      <c r="B475" s="59">
+      <c r="B475" s="58">
         <v>10391</v>
       </c>
-      <c r="F475" s="59">
-        <v>1</v>
-      </c>
-      <c r="G475" s="59" t="s">
+      <c r="F475" s="58">
+        <v>1</v>
+      </c>
+      <c r="G475" s="58" t="s">
         <v>1634</v>
       </c>
-      <c r="I475" s="59" t="s">
+      <c r="I475" s="58" t="s">
         <v>1611</v>
       </c>
-      <c r="J475" s="59" t="s">
+      <c r="J475" s="58" t="s">
         <v>1688</v>
       </c>
-      <c r="L475" s="59">
+      <c r="L475" s="58">
         <v>-31</v>
       </c>
-      <c r="M475" s="59">
-        <v>0</v>
-      </c>
-      <c r="N475" s="59">
-        <v>0</v>
-      </c>
-      <c r="O475" s="59" t="s">
+      <c r="M475" s="58">
+        <v>0</v>
+      </c>
+      <c r="N475" s="58">
+        <v>0</v>
+      </c>
+      <c r="O475" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P475" s="59">
+      <c r="P475" s="58">
         <v>249800</v>
       </c>
-      <c r="Q475" s="59" t="s">
+      <c r="Q475" s="58" t="s">
         <v>1527</v>
       </c>
-      <c r="R475" s="60" t="s">
+      <c r="R475" s="59" t="s">
         <v>1687</v>
       </c>
-      <c r="W475" s="59" t="s">
+      <c r="W475" s="58" t="s">
         <v>1624</v>
       </c>
-      <c r="X475" s="59">
+      <c r="X475" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y475" s="59">
+      <c r="Y475" s="58">
         <v>1605571200</v>
       </c>
-      <c r="Z475" s="59">
+      <c r="Z475" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH475" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI475" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL475" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM475" s="59">
+      <c r="AH475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM475" s="58">
         <v>1</v>
       </c>
     </row>
@@ -43457,263 +43448,263 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="59">
+    <row r="493" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="58">
         <v>492</v>
       </c>
-      <c r="B493" s="59">
+      <c r="B493" s="58">
         <v>10409</v>
       </c>
-      <c r="F493" s="59">
-        <v>1</v>
-      </c>
-      <c r="G493" s="59" t="s">
+      <c r="F493" s="58">
+        <v>1</v>
+      </c>
+      <c r="G493" s="58" t="s">
         <v>1865</v>
       </c>
-      <c r="I493" s="59" t="s">
+      <c r="I493" s="58" t="s">
         <v>1866</v>
       </c>
-      <c r="J493" s="59" t="s">
+      <c r="J493" s="58" t="s">
         <v>1867</v>
       </c>
-      <c r="L493" s="59">
+      <c r="L493" s="58">
         <v>-31</v>
       </c>
-      <c r="M493" s="59">
-        <v>0</v>
-      </c>
-      <c r="N493" s="59">
-        <v>0</v>
-      </c>
-      <c r="O493" s="59" t="s">
+      <c r="M493" s="58">
+        <v>0</v>
+      </c>
+      <c r="N493" s="58">
+        <v>0</v>
+      </c>
+      <c r="O493" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="P493" s="59">
+      <c r="P493" s="58">
         <v>49800</v>
       </c>
-      <c r="Q493" s="59" t="s">
+      <c r="Q493" s="58" t="s">
         <v>1868</v>
       </c>
-      <c r="R493" s="60" t="s">
+      <c r="R493" s="59" t="s">
         <v>1870</v>
       </c>
-      <c r="W493" s="59" t="s">
+      <c r="W493" s="58" t="s">
         <v>524</v>
       </c>
-      <c r="X493" s="59">
+      <c r="X493" s="58">
         <v>200</v>
       </c>
-      <c r="Y493" s="59">
+      <c r="Y493" s="58">
         <v>1609200000</v>
       </c>
-      <c r="Z493" s="59">
+      <c r="Z493" s="58">
         <v>1609775999</v>
       </c>
-      <c r="AH493" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI493" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL493" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM493" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="59">
+      <c r="AH493" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI493" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL493" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM493" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="58">
         <v>493</v>
       </c>
-      <c r="B494" s="59">
+      <c r="B494" s="58">
         <v>10410</v>
       </c>
-      <c r="F494" s="59">
-        <v>1</v>
-      </c>
-      <c r="G494" s="59" t="s">
+      <c r="F494" s="58">
+        <v>1</v>
+      </c>
+      <c r="G494" s="58" t="s">
         <v>1865</v>
       </c>
-      <c r="I494" s="59" t="s">
+      <c r="I494" s="58" t="s">
         <v>1869</v>
       </c>
-      <c r="J494" s="59" t="s">
+      <c r="J494" s="58" t="s">
         <v>1867</v>
       </c>
-      <c r="L494" s="59">
+      <c r="L494" s="58">
         <v>-31</v>
       </c>
-      <c r="M494" s="59">
-        <v>0</v>
-      </c>
-      <c r="N494" s="59">
-        <v>0</v>
-      </c>
-      <c r="O494" s="59" t="s">
+      <c r="M494" s="58">
+        <v>0</v>
+      </c>
+      <c r="N494" s="58">
+        <v>0</v>
+      </c>
+      <c r="O494" s="58" t="s">
         <v>492</v>
       </c>
-      <c r="P494" s="59">
+      <c r="P494" s="58">
         <v>99800</v>
       </c>
-      <c r="Q494" s="59" t="s">
+      <c r="Q494" s="58" t="s">
         <v>1868</v>
       </c>
-      <c r="R494" s="60" t="s">
+      <c r="R494" s="59" t="s">
         <v>1870</v>
       </c>
-      <c r="W494" s="59" t="s">
+      <c r="W494" s="58" t="s">
         <v>524</v>
       </c>
-      <c r="X494" s="59">
+      <c r="X494" s="58">
         <v>9999999</v>
       </c>
-      <c r="Y494" s="59">
+      <c r="Y494" s="58">
         <v>1609200000</v>
       </c>
-      <c r="Z494" s="59">
+      <c r="Z494" s="58">
         <v>1609775999</v>
       </c>
-      <c r="AH494" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI494" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL494" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM494" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A495" s="59">
+      <c r="AH494" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI494" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL494" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM494" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="58">
         <v>494</v>
       </c>
-      <c r="B495" s="59">
+      <c r="B495" s="58">
         <v>10411</v>
       </c>
-      <c r="F495" s="59">
-        <v>1</v>
-      </c>
-      <c r="G495" s="59" t="s">
+      <c r="F495" s="58">
+        <v>1</v>
+      </c>
+      <c r="G495" s="58" t="s">
         <v>1886</v>
       </c>
-      <c r="J495" s="59" t="s">
+      <c r="J495" s="58" t="s">
         <v>1887</v>
       </c>
-      <c r="L495" s="59">
+      <c r="L495" s="58">
         <v>-31</v>
       </c>
-      <c r="M495" s="59">
-        <v>0</v>
-      </c>
-      <c r="N495" s="59">
-        <v>0</v>
-      </c>
-      <c r="O495" s="59" t="s">
+      <c r="M495" s="58">
+        <v>0</v>
+      </c>
+      <c r="N495" s="58">
+        <v>0</v>
+      </c>
+      <c r="O495" s="58" t="s">
         <v>481</v>
       </c>
-      <c r="P495" s="59">
+      <c r="P495" s="58">
         <v>79800</v>
       </c>
-      <c r="Q495" s="59" t="s">
+      <c r="Q495" s="58" t="s">
         <v>1641</v>
       </c>
-      <c r="R495" s="60" t="s">
+      <c r="R495" s="59" t="s">
         <v>1888</v>
       </c>
-      <c r="W495" s="59" t="s">
+      <c r="W495" s="58" t="s">
         <v>981</v>
       </c>
-      <c r="X495" s="59">
+      <c r="X495" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y495" s="59">
+      <c r="Y495" s="58">
         <v>1592263800</v>
       </c>
-      <c r="Z495" s="59">
+      <c r="Z495" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA495" s="59">
+      <c r="AA495" s="58">
         <v>14</v>
       </c>
-      <c r="AH495" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI495" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL495" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM495" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A496" s="59">
+      <c r="AH495" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI495" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL495" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM495" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="58">
         <v>495</v>
       </c>
-      <c r="B496" s="59">
+      <c r="B496" s="58">
         <v>10412</v>
       </c>
-      <c r="F496" s="59">
-        <v>1</v>
-      </c>
-      <c r="G496" s="59" t="s">
+      <c r="F496" s="58">
+        <v>1</v>
+      </c>
+      <c r="G496" s="58" t="s">
         <v>1889</v>
       </c>
-      <c r="J496" s="59" t="s">
+      <c r="J496" s="58" t="s">
         <v>1890</v>
       </c>
-      <c r="L496" s="59">
+      <c r="L496" s="58">
         <v>-31</v>
       </c>
-      <c r="M496" s="59">
-        <v>0</v>
-      </c>
-      <c r="N496" s="59">
-        <v>0</v>
-      </c>
-      <c r="O496" s="59" t="s">
+      <c r="M496" s="58">
+        <v>0</v>
+      </c>
+      <c r="N496" s="58">
+        <v>0</v>
+      </c>
+      <c r="O496" s="58" t="s">
         <v>481</v>
       </c>
-      <c r="P496" s="59">
+      <c r="P496" s="58">
         <v>89800</v>
       </c>
-      <c r="Q496" s="59" t="s">
+      <c r="Q496" s="58" t="s">
         <v>1641</v>
       </c>
-      <c r="R496" s="60" t="s">
+      <c r="R496" s="59" t="s">
         <v>1891</v>
       </c>
-      <c r="W496" s="59" t="s">
+      <c r="W496" s="58" t="s">
         <v>981</v>
       </c>
-      <c r="X496" s="59">
+      <c r="X496" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y496" s="59">
+      <c r="Y496" s="58">
         <v>1592263800</v>
       </c>
-      <c r="Z496" s="59">
+      <c r="Z496" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AA496" s="59">
+      <c r="AA496" s="58">
         <v>14</v>
       </c>
-      <c r="AH496" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI496" s="59">
-        <v>1</v>
-      </c>
-      <c r="AL496" s="59">
-        <v>1</v>
-      </c>
-      <c r="AM496" s="59">
+      <c r="AH496" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI496" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL496" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM496" s="58">
         <v>1</v>
       </c>
     </row>
@@ -43754,7 +43745,7 @@
       <c r="Q497" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R497" s="63" t="s">
+      <c r="R497" s="62" t="s">
         <v>2016</v>
       </c>
       <c r="W497" s="47" t="s">
@@ -43822,7 +43813,7 @@
       <c r="Q498" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R498" s="63" t="s">
+      <c r="R498" s="62" t="s">
         <v>2017</v>
       </c>
       <c r="W498" s="47" t="s">
@@ -43890,7 +43881,7 @@
       <c r="Q499" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R499" s="63" t="s">
+      <c r="R499" s="62" t="s">
         <v>2018</v>
       </c>
       <c r="W499" s="47" t="s">
@@ -43958,7 +43949,7 @@
       <c r="Q500" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R500" s="63" t="s">
+      <c r="R500" s="62" t="s">
         <v>2019</v>
       </c>
       <c r="W500" s="47" t="s">
@@ -44026,7 +44017,7 @@
       <c r="Q501" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R501" s="63" t="s">
+      <c r="R501" s="62" t="s">
         <v>2020</v>
       </c>
       <c r="W501" s="47" t="s">
@@ -44094,7 +44085,7 @@
       <c r="Q502" s="5" t="s">
         <v>1897</v>
       </c>
-      <c r="R502" s="63" t="s">
+      <c r="R502" s="62" t="s">
         <v>2021</v>
       </c>
       <c r="W502" s="47" t="s">
@@ -44162,7 +44153,7 @@
       <c r="Q503" s="5" t="s">
         <v>1908</v>
       </c>
-      <c r="R503" s="64" t="s">
+      <c r="R503" s="63" t="s">
         <v>2022</v>
       </c>
       <c r="W503" s="47" t="s">
@@ -44230,7 +44221,7 @@
       <c r="Q504" s="5" t="s">
         <v>1908</v>
       </c>
-      <c r="R504" s="64" t="s">
+      <c r="R504" s="63" t="s">
         <v>2017</v>
       </c>
       <c r="W504" s="47" t="s">
@@ -44298,7 +44289,7 @@
       <c r="Q505" s="5" t="s">
         <v>1908</v>
       </c>
-      <c r="R505" s="64" t="s">
+      <c r="R505" s="63" t="s">
         <v>2023</v>
       </c>
       <c r="W505" s="47" t="s">
@@ -44366,7 +44357,7 @@
       <c r="Q506" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="R506" s="64" t="s">
+      <c r="R506" s="63" t="s">
         <v>2024</v>
       </c>
       <c r="W506" s="47" t="s">
@@ -44434,7 +44425,7 @@
       <c r="Q507" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="R507" s="64" t="s">
+      <c r="R507" s="63" t="s">
         <v>2025</v>
       </c>
       <c r="W507" s="47" t="s">
@@ -44502,7 +44493,7 @@
       <c r="Q508" s="5" t="s">
         <v>1912</v>
       </c>
-      <c r="R508" s="64" t="s">
+      <c r="R508" s="63" t="s">
         <v>2026</v>
       </c>
       <c r="W508" s="47" t="s">
@@ -44533,183 +44524,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A509" s="59">
+    <row r="509" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="58">
         <v>508</v>
       </c>
-      <c r="B509" s="59">
+      <c r="B509" s="58">
         <v>10425</v>
       </c>
-      <c r="F509" s="59">
-        <v>1</v>
-      </c>
-      <c r="G509" s="59" t="s">
+      <c r="F509" s="58">
+        <v>1</v>
+      </c>
+      <c r="G509" s="58" t="s">
         <v>1918</v>
       </c>
-      <c r="J509" s="59" t="s">
+      <c r="J509" s="58" t="s">
         <v>1919</v>
       </c>
-      <c r="L509" s="59">
+      <c r="L509" s="58">
         <v>-4</v>
       </c>
-      <c r="M509" s="59">
-        <v>1</v>
-      </c>
-      <c r="N509" s="59">
-        <v>0</v>
-      </c>
-      <c r="O509" s="59" t="s">
+      <c r="M509" s="58">
+        <v>1</v>
+      </c>
+      <c r="N509" s="58">
+        <v>0</v>
+      </c>
+      <c r="O509" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P509" s="59">
+      <c r="P509" s="58">
         <v>1800</v>
       </c>
-      <c r="R509" s="60"/>
-      <c r="W509" s="59" t="s">
+      <c r="R509" s="59"/>
+      <c r="W509" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="X509" s="61" t="s">
+      <c r="X509" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="Y509" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z509" s="59">
+      <c r="Y509" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB509" s="59" t="s">
+      <c r="AB509" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AC509" s="59" t="s">
+      <c r="AC509" s="58" t="s">
         <v>1920</v>
       </c>
-      <c r="AD509" s="60" t="s">
+      <c r="AD509" s="59" t="s">
         <v>1921</v>
       </c>
-      <c r="AH509" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI509" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A510" s="59">
+      <c r="AH509" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI509" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="58">
         <v>509</v>
       </c>
-      <c r="B510" s="59">
+      <c r="B510" s="58">
         <v>10426</v>
       </c>
-      <c r="F510" s="59">
-        <v>1</v>
-      </c>
-      <c r="G510" s="59" t="s">
+      <c r="F510" s="58">
+        <v>1</v>
+      </c>
+      <c r="G510" s="58" t="s">
         <v>1922</v>
       </c>
-      <c r="J510" s="59" t="s">
+      <c r="J510" s="58" t="s">
         <v>1923</v>
       </c>
-      <c r="L510" s="59">
+      <c r="L510" s="58">
         <v>-4</v>
       </c>
-      <c r="M510" s="59">
-        <v>1</v>
-      </c>
-      <c r="N510" s="59">
-        <v>0</v>
-      </c>
-      <c r="O510" s="59" t="s">
+      <c r="M510" s="58">
+        <v>1</v>
+      </c>
+      <c r="N510" s="58">
+        <v>0</v>
+      </c>
+      <c r="O510" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P510" s="59">
+      <c r="P510" s="58">
         <v>4800</v>
       </c>
-      <c r="R510" s="60"/>
-      <c r="W510" s="59" t="s">
+      <c r="R510" s="59"/>
+      <c r="W510" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="X510" s="61" t="s">
+      <c r="X510" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="Y510" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z510" s="59">
+      <c r="Y510" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB510" s="59" t="s">
+      <c r="AB510" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AC510" s="59" t="s">
+      <c r="AC510" s="58" t="s">
         <v>1924</v>
       </c>
-      <c r="AD510" s="60" t="s">
+      <c r="AD510" s="59" t="s">
         <v>1925</v>
       </c>
-      <c r="AH510" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI510" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A511" s="59">
+      <c r="AH510" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI510" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="58">
         <v>510</v>
       </c>
-      <c r="B511" s="59">
+      <c r="B511" s="58">
         <v>10427</v>
       </c>
-      <c r="F511" s="59">
-        <v>1</v>
-      </c>
-      <c r="G511" s="59" t="s">
+      <c r="F511" s="58">
+        <v>1</v>
+      </c>
+      <c r="G511" s="58" t="s">
         <v>1926</v>
       </c>
-      <c r="J511" s="59" t="s">
+      <c r="J511" s="58" t="s">
         <v>1927</v>
       </c>
-      <c r="L511" s="59">
+      <c r="L511" s="58">
         <v>-4</v>
       </c>
-      <c r="M511" s="59">
-        <v>1</v>
-      </c>
-      <c r="N511" s="59">
-        <v>0</v>
-      </c>
-      <c r="O511" s="59" t="s">
+      <c r="M511" s="58">
+        <v>1</v>
+      </c>
+      <c r="N511" s="58">
+        <v>0</v>
+      </c>
+      <c r="O511" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P511" s="59">
+      <c r="P511" s="58">
         <v>9800</v>
       </c>
-      <c r="R511" s="60"/>
-      <c r="W511" s="59" t="s">
+      <c r="R511" s="59"/>
+      <c r="W511" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="X511" s="61" t="s">
+      <c r="X511" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="Y511" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z511" s="59">
+      <c r="Y511" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AB511" s="59" t="s">
+      <c r="AB511" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AC511" s="59" t="s">
+      <c r="AC511" s="58" t="s">
         <v>1928</v>
       </c>
-      <c r="AD511" s="60" t="s">
+      <c r="AD511" s="59" t="s">
         <v>1929</v>
       </c>
-      <c r="AH511" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI511" s="59">
+      <c r="AH511" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI511" s="58">
         <v>1</v>
       </c>
     </row>
@@ -45257,65 +45248,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:39" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A520" s="59">
+    <row r="520" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="58">
         <v>519</v>
       </c>
-      <c r="B520" s="59">
+      <c r="B520" s="58">
         <v>10436</v>
       </c>
-      <c r="F520" s="59">
-        <v>1</v>
-      </c>
-      <c r="G520" s="59" t="s">
+      <c r="F520" s="58">
+        <v>1</v>
+      </c>
+      <c r="G520" s="58" t="s">
         <v>1961</v>
       </c>
-      <c r="I520" s="59" t="s">
+      <c r="I520" s="58" t="s">
         <v>1962</v>
       </c>
-      <c r="J520" s="59" t="s">
+      <c r="J520" s="58" t="s">
         <v>1963</v>
       </c>
-      <c r="L520" s="59">
+      <c r="L520" s="58">
         <v>-23</v>
       </c>
-      <c r="M520" s="59">
-        <v>1</v>
-      </c>
-      <c r="N520" s="59">
-        <v>0</v>
-      </c>
-      <c r="O520" s="59" t="s">
+      <c r="M520" s="58">
+        <v>1</v>
+      </c>
+      <c r="N520" s="58">
+        <v>0</v>
+      </c>
+      <c r="O520" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="P520" s="59">
+      <c r="P520" s="58">
         <v>1000</v>
       </c>
-      <c r="Q520" s="59" t="s">
+      <c r="Q520" s="58" t="s">
         <v>1964</v>
       </c>
-      <c r="R520" s="60" t="s">
+      <c r="R520" s="59" t="s">
         <v>1965</v>
       </c>
-      <c r="S520" s="59" t="s">
+      <c r="S520" s="58" t="s">
         <v>1966</v>
       </c>
-      <c r="W520" s="59" t="s">
+      <c r="W520" s="58" t="s">
         <v>1967</v>
       </c>
-      <c r="X520" s="59">
+      <c r="X520" s="58">
         <v>99999999</v>
       </c>
-      <c r="Y520" s="59">
-        <v>0</v>
-      </c>
-      <c r="Z520" s="59">
+      <c r="Y520" s="58">
+        <v>0</v>
+      </c>
+      <c r="Z520" s="58">
         <v>2552233600</v>
       </c>
-      <c r="AH520" s="59">
-        <v>1</v>
-      </c>
-      <c r="AI520" s="59">
+      <c r="AH520" s="58">
+        <v>1</v>
+      </c>
+      <c r="AI520" s="58">
         <v>1</v>
       </c>
     </row>
@@ -47783,7 +47774,7 @@
       <c r="Q557" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R557" s="65" t="s">
+      <c r="R557" s="64" t="s">
         <v>2117</v>
       </c>
       <c r="W557" s="5" t="s">
@@ -47849,7 +47840,7 @@
       <c r="Q558" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R558" s="65" t="s">
+      <c r="R558" s="64" t="s">
         <v>654</v>
       </c>
       <c r="W558" s="5" t="s">
@@ -47915,7 +47906,7 @@
       <c r="Q559" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R559" s="65" t="s">
+      <c r="R559" s="64" t="s">
         <v>2118</v>
       </c>
       <c r="W559" s="5" t="s">
@@ -47981,7 +47972,7 @@
       <c r="Q560" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R560" s="65" t="s">
+      <c r="R560" s="64" t="s">
         <v>989</v>
       </c>
       <c r="W560" s="5" t="s">
@@ -48047,7 +48038,7 @@
       <c r="Q561" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R561" s="65" t="s">
+      <c r="R561" s="64" t="s">
         <v>1617</v>
       </c>
       <c r="W561" s="5" t="s">
@@ -48113,7 +48104,7 @@
       <c r="Q562" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R562" s="65" t="s">
+      <c r="R562" s="64" t="s">
         <v>2119</v>
       </c>
       <c r="W562" s="5" t="s">
@@ -48179,7 +48170,7 @@
       <c r="Q563" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R563" s="65" t="s">
+      <c r="R563" s="64" t="s">
         <v>989</v>
       </c>
       <c r="W563" s="5" t="s">
@@ -48245,7 +48236,7 @@
       <c r="Q564" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R564" s="65" t="s">
+      <c r="R564" s="64" t="s">
         <v>2118</v>
       </c>
       <c r="W564" s="5" t="s">
@@ -48311,7 +48302,7 @@
       <c r="Q565" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R565" s="65" t="s">
+      <c r="R565" s="64" t="s">
         <v>2120</v>
       </c>
       <c r="W565" s="5" t="s">
@@ -48377,7 +48368,7 @@
       <c r="Q566" s="22" t="s">
         <v>2123</v>
       </c>
-      <c r="R566" s="66" t="s">
+      <c r="R566" s="65" t="s">
         <v>2124</v>
       </c>
       <c r="W566" s="22" t="s">
@@ -48445,7 +48436,7 @@
       <c r="Q567" s="22" t="s">
         <v>2123</v>
       </c>
-      <c r="R567" s="66" t="s">
+      <c r="R567" s="65" t="s">
         <v>1938</v>
       </c>
       <c r="W567" s="22" t="s">
@@ -48513,7 +48504,7 @@
       <c r="Q568" s="22" t="s">
         <v>2126</v>
       </c>
-      <c r="R568" s="66" t="s">
+      <c r="R568" s="65" t="s">
         <v>1941</v>
       </c>
       <c r="W568" s="22" t="s">
@@ -48581,7 +48572,7 @@
       <c r="Q569" s="22" t="s">
         <v>2128</v>
       </c>
-      <c r="R569" s="66" t="s">
+      <c r="R569" s="65" t="s">
         <v>1944</v>
       </c>
       <c r="W569" s="22" t="s">
@@ -48649,7 +48640,7 @@
       <c r="Q570" s="22" t="s">
         <v>2130</v>
       </c>
-      <c r="R570" s="66" t="s">
+      <c r="R570" s="65" t="s">
         <v>1948</v>
       </c>
       <c r="W570" s="22" t="s">
@@ -48717,7 +48708,7 @@
       <c r="Q571" s="22" t="s">
         <v>2130</v>
       </c>
-      <c r="R571" s="66" t="s">
+      <c r="R571" s="65" t="s">
         <v>2132</v>
       </c>
       <c r="W571" s="22" t="s">
@@ -48785,7 +48776,7 @@
       <c r="Q572" s="22" t="s">
         <v>2133</v>
       </c>
-      <c r="R572" s="66" t="s">
+      <c r="R572" s="65" t="s">
         <v>1954</v>
       </c>
       <c r="W572" s="22" t="s">
@@ -48853,7 +48844,7 @@
       <c r="Q573" s="22" t="s">
         <v>2137</v>
       </c>
-      <c r="R573" s="66" t="s">
+      <c r="R573" s="65" t="s">
         <v>2138</v>
       </c>
       <c r="W573" s="22" t="s">
@@ -48924,7 +48915,7 @@
       <c r="Q574" s="22" t="s">
         <v>2143</v>
       </c>
-      <c r="R574" s="67" t="s">
+      <c r="R574" s="66" t="s">
         <v>2144</v>
       </c>
       <c r="S574" s="22"/>
@@ -48996,7 +48987,7 @@
       <c r="Q575" s="22" t="s">
         <v>2150</v>
       </c>
-      <c r="R575" s="67" t="s">
+      <c r="R575" s="66" t="s">
         <v>2151</v>
       </c>
       <c r="S575" s="22"/>
@@ -49068,7 +49059,7 @@
       <c r="Q576" s="22" t="s">
         <v>2155</v>
       </c>
-      <c r="R576" s="67" t="s">
+      <c r="R576" s="66" t="s">
         <v>2156</v>
       </c>
       <c r="S576" s="22"/>
@@ -49140,7 +49131,7 @@
       <c r="Q577" s="22" t="s">
         <v>2159</v>
       </c>
-      <c r="R577" s="67" t="s">
+      <c r="R577" s="66" t="s">
         <v>2160</v>
       </c>
       <c r="S577" s="22"/>
@@ -49212,7 +49203,7 @@
       <c r="Q578" s="22" t="s">
         <v>2163</v>
       </c>
-      <c r="R578" s="67" t="s">
+      <c r="R578" s="66" t="s">
         <v>2164</v>
       </c>
       <c r="S578" s="22"/>
@@ -49284,7 +49275,7 @@
       <c r="Q579" s="22" t="s">
         <v>2167</v>
       </c>
-      <c r="R579" s="67" t="s">
+      <c r="R579" s="66" t="s">
         <v>2168</v>
       </c>
       <c r="S579" s="22"/>
@@ -49328,7 +49319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
@@ -50329,13 +50320,13 @@
       <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="56" t="s">
         <v>2170</v>
       </c>
-      <c r="C71" s="58">
-        <v>1</v>
-      </c>
-      <c r="D71" s="58">
+      <c r="C71" s="57">
+        <v>1</v>
+      </c>
+      <c r="D71" s="57">
         <v>0</v>
       </c>
     </row>
@@ -50343,13 +50334,13 @@
       <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="56" t="s">
         <v>2171</v>
       </c>
-      <c r="C72" s="58">
-        <v>1</v>
-      </c>
-      <c r="D72" s="58">
+      <c r="C72" s="57">
+        <v>1</v>
+      </c>
+      <c r="D72" s="57">
         <v>0</v>
       </c>
     </row>
@@ -50357,13 +50348,13 @@
       <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="56" t="s">
         <v>2172</v>
       </c>
-      <c r="C73" s="58">
-        <v>1</v>
-      </c>
-      <c r="D73" s="58">
+      <c r="C73" s="57">
+        <v>1</v>
+      </c>
+      <c r="D73" s="57">
         <v>0</v>
       </c>
     </row>
@@ -50371,13 +50362,13 @@
       <c r="A74" s="12">
         <v>73</v>
       </c>
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="56" t="s">
         <v>2069</v>
       </c>
-      <c r="C74" s="58">
-        <v>1</v>
-      </c>
-      <c r="D74" s="58">
+      <c r="C74" s="57">
+        <v>1</v>
+      </c>
+      <c r="D74" s="57">
         <v>0</v>
       </c>
     </row>
@@ -50385,13 +50376,13 @@
       <c r="A75" s="12">
         <v>74</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="56" t="s">
         <v>2070</v>
       </c>
-      <c r="C75" s="58">
-        <v>1</v>
-      </c>
-      <c r="D75" s="58">
+      <c r="C75" s="57">
+        <v>1</v>
+      </c>
+      <c r="D75" s="57">
         <v>0</v>
       </c>
     </row>
@@ -50399,13 +50390,13 @@
       <c r="A76" s="12">
         <v>75</v>
       </c>
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="56" t="s">
         <v>2071</v>
       </c>
-      <c r="C76" s="58">
-        <v>1</v>
-      </c>
-      <c r="D76" s="58">
+      <c r="C76" s="57">
+        <v>1</v>
+      </c>
+      <c r="D76" s="57">
         <v>0</v>
       </c>
     </row>

--- a/config_3.9/shoping_config_xiaomi.xlsx
+++ b/config_3.9/shoping_config_xiaomi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="2173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="2178">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9191,6 +9191,26 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_jbzk_special_item",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9373,7 +9393,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9577,6 +9597,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12068,13 +12091,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN579"/>
+  <dimension ref="A1:AN580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W381" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H560" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z391" sqref="Z391"/>
+      <selection pane="bottomRight" activeCell="A580" sqref="A580:XFD580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -49307,6 +49330,65 @@
         <v>1</v>
       </c>
     </row>
+    <row r="580" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A580" s="5">
+        <v>579</v>
+      </c>
+      <c r="B580" s="6">
+        <v>10496</v>
+      </c>
+      <c r="F580" s="6">
+        <v>1</v>
+      </c>
+      <c r="G580" s="6" t="s">
+        <v>2173</v>
+      </c>
+      <c r="I580" s="6" t="s">
+        <v>2174</v>
+      </c>
+      <c r="J580" s="6" t="s">
+        <v>2174</v>
+      </c>
+      <c r="L580" s="6">
+        <v>-31</v>
+      </c>
+      <c r="M580" s="6">
+        <v>0</v>
+      </c>
+      <c r="N580" s="6">
+        <v>0</v>
+      </c>
+      <c r="O580" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P580" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q580" s="5" t="s">
+        <v>2175</v>
+      </c>
+      <c r="R580" s="68" t="s">
+        <v>2176</v>
+      </c>
+      <c r="W580" s="6" t="s">
+        <v>2177</v>
+      </c>
+      <c r="X580" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="Y580" s="6">
+        <v>1614643200</v>
+      </c>
+      <c r="Z580" s="6">
+        <v>2552233600</v>
+      </c>
+      <c r="AH580" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI580" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_3.9/shoping_config_xiaomi.xlsx
+++ b/config_3.9/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="2178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="2179">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9211,6 +9211,10 @@
   </si>
   <si>
     <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -12097,7 +12101,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="H560" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A580" sqref="A580:XFD580"/>
+      <selection pane="bottomRight" activeCell="J580" sqref="J580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -49347,7 +49351,7 @@
         <v>2174</v>
       </c>
       <c r="J580" s="6" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="L580" s="6">
         <v>-31</v>
